--- a/回归结果/水稻.xlsx
+++ b/回归结果/水稻.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="141">
   <si>
     <t>yield</t>
   </si>
@@ -548,16 +548,48 @@
     <t>P=0.000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>N=9790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=8198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=1563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +762,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,20 +780,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,6 +801,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1065,7 +1108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1107,7 +1150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,9 +1182,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1173,6 +1217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1348,18 +1393,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF148"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130:AS148"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.625" customWidth="1"/>
-    <col min="14" max="23" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="3" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.75" customWidth="1"/>
+    <col min="14" max="14" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.75" customWidth="1"/>
+    <col min="18" max="23" width="9.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="1.625" customWidth="1"/>
     <col min="25" max="30" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="9.125" bestFit="1" customWidth="1"/>
@@ -1371,12 +1422,12 @@
     <col min="45" max="45" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="15">
+    <row r="1" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="15">
+    <row r="2" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1476,7 +1527,7 @@
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
     </row>
-    <row r="3" spans="1:58" ht="15">
+    <row r="3" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>41</v>
@@ -1650,7 +1701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="15">
+    <row r="4" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1750,7 +1801,7 @@
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
     </row>
-    <row r="5" spans="1:58" ht="15">
+    <row r="5" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1926,7 +1977,7 @@
         <v>0.21379770000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="15">
+    <row r="6" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -2102,7 +2153,7 @@
         <v>-0.62778350000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="15">
+    <row r="7" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -2278,7 +2329,7 @@
         <v>0.97221650000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="15">
+    <row r="8" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
@@ -2290,30 +2341,30 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:58" ht="15">
+    <row r="9" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:58" ht="15">
+    <row r="10" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2345,65 +2396,37 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:58" ht="15">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:58" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>1</v>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3">
-        <v>2</v>
-      </c>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-    </row>
-    <row r="12" spans="1:58" ht="15">
-      <c r="A12" s="30"/>
+    </row>
+    <row r="12" spans="1:58" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -2414,128 +2437,44 @@
       <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" ht="15">
+    </row>
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="7">
-        <v>477.57639999999998</v>
+        <v>475.03050000000002</v>
       </c>
       <c r="D13" s="7">
         <v>833.33339999999998</v>
@@ -2543,257 +2482,91 @@
       <c r="E13" s="7">
         <v>285.83330000000001</v>
       </c>
-      <c r="F13" s="7">
-        <v>400</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="7">
-        <v>461.45100000000002</v>
+        <v>477.57639999999998</v>
       </c>
       <c r="H13" s="7">
-        <v>540</v>
+        <v>833.33339999999998</v>
       </c>
       <c r="I13" s="7">
-        <v>0.82827859999999998</v>
-      </c>
-      <c r="J13" s="7">
-        <v>3.41371</v>
+        <v>285.83330000000001</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K13" s="7">
-        <v>117.99</v>
+        <v>461.65899999999999</v>
       </c>
       <c r="L13" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>461.65899999999999</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="M13" s="7">
+        <v>286.66669999999999</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
-        <v>824</v>
+        <v>476.0127</v>
       </c>
       <c r="P13" s="7">
-        <v>286.66669999999999</v>
+        <v>757.57569999999998</v>
       </c>
       <c r="Q13" s="7">
-        <v>400</v>
-      </c>
-      <c r="R13" s="7">
-        <v>454.54539999999997</v>
-      </c>
-      <c r="S13" s="7">
-        <v>518.34860000000003</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0.52892209999999995</v>
-      </c>
-      <c r="U13" s="7">
-        <v>3.431362</v>
-      </c>
-      <c r="V13" s="7">
-        <v>94.486540000000005</v>
-      </c>
-      <c r="W13" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7">
-        <v>476.0127</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>757.57569999999998</v>
-      </c>
-      <c r="AA13" s="7">
         <v>330.85109999999997</v>
       </c>
-      <c r="AB13" s="7">
-        <v>407</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>470.05079999999998</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>520.33330000000001</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>0.65825500000000003</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>3.6611630000000002</v>
-      </c>
-      <c r="AG13" s="7">
-        <v>97.437790000000007</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7">
-        <v>475.03050000000002</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>833.33339999999998</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>285.83330000000001</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>400</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>460</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>533.33330000000001</v>
-      </c>
-      <c r="AP13" s="7">
-        <v>0.82543120000000003</v>
-      </c>
-      <c r="AQ13" s="7">
-        <v>3.521522</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>114.64400000000001</v>
-      </c>
-      <c r="AS13" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58" ht="15">
+    </row>
+    <row r="14" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7">
-        <v>3.325091</v>
+        <v>5.6997140000000002</v>
       </c>
       <c r="D14" s="7">
-        <v>9.9</v>
+        <v>227</v>
       </c>
       <c r="E14" s="7">
         <v>0.1</v>
       </c>
-      <c r="F14" s="7">
-        <v>1.6</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="7">
-        <v>2.8</v>
+        <v>3.325091</v>
       </c>
       <c r="H14" s="7">
-        <v>4.5</v>
+        <v>9.9</v>
       </c>
       <c r="I14" s="7">
-        <v>0.94495050000000003</v>
-      </c>
-      <c r="J14" s="7">
-        <v>3.105197</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="7">
-        <v>2.2106439999999998</v>
+        <v>16.758669999999999</v>
       </c>
       <c r="L14" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>16.758669999999999</v>
-      </c>
+        <v>49.5</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
-        <v>49.5</v>
+        <v>80.941379999999995</v>
       </c>
       <c r="P14" s="7">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7">
-        <v>11.5</v>
-      </c>
-      <c r="R14" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="S14" s="7">
-        <v>19.7</v>
-      </c>
-      <c r="T14" s="7">
-        <v>1.660407</v>
-      </c>
-      <c r="U14" s="7">
-        <v>5.9290820000000002</v>
-      </c>
-      <c r="V14" s="7">
-        <v>7.2198029999999997</v>
-      </c>
-      <c r="W14" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7">
-        <v>80.941379999999995</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>227</v>
-      </c>
-      <c r="AA14" s="7">
         <v>50.7</v>
       </c>
-      <c r="AB14" s="7">
-        <v>54</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>60.8</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>2.0209800000000002</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>6.9797570000000002</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>41.773229999999998</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7">
-        <v>5.6997140000000002</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>227</v>
-      </c>
-      <c r="AL14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AM14" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="AN14" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>6.7</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>7.5301070000000001</v>
-      </c>
-      <c r="AQ14" s="7">
-        <v>135.78729999999999</v>
-      </c>
-      <c r="AR14" s="7">
-        <v>7.6434709999999999</v>
-      </c>
-      <c r="AS14" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58" ht="15">
+    </row>
+    <row r="15" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7">
-        <v>21.486319999999999</v>
+        <v>19.75299</v>
       </c>
       <c r="D15" s="7">
         <v>83.333330000000004</v>
@@ -2801,128 +2574,49 @@
       <c r="E15" s="7">
         <v>2.2222219999999999</v>
       </c>
-      <c r="F15" s="7">
-        <v>12.307689999999999</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="7">
-        <v>18</v>
+        <v>21.486319999999999</v>
       </c>
       <c r="H15" s="7">
-        <v>25.052630000000001</v>
+        <v>83.333330000000004</v>
       </c>
       <c r="I15" s="7">
-        <v>1.963276</v>
-      </c>
-      <c r="J15" s="7">
-        <v>7.853148</v>
+        <v>2.2222219999999999</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="K15" s="7">
-        <v>14.358650000000001</v>
+        <v>10.86927</v>
       </c>
       <c r="L15" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>10.86927</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2.2222219999999999</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7">
-        <v>70</v>
+        <v>8.5597539999999999</v>
       </c>
       <c r="P15" s="7">
+        <v>75.657899999999998</v>
+      </c>
+      <c r="Q15" s="7">
         <v>2.2222219999999999</v>
       </c>
-      <c r="Q15" s="7">
-        <v>6.9230770000000001</v>
-      </c>
-      <c r="R15" s="7">
-        <v>10</v>
-      </c>
-      <c r="S15" s="7">
-        <v>13.88889</v>
-      </c>
-      <c r="T15" s="7">
-        <v>1.8874109999999999</v>
-      </c>
-      <c r="U15" s="7">
-        <v>12.420909999999999</v>
-      </c>
-      <c r="V15" s="7">
-        <v>6.306762</v>
-      </c>
-      <c r="W15" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7">
-        <v>8.5597539999999999</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>75.657899999999998</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>2.2222219999999999</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>3.451676</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>5.8333329999999997</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>3.5609320000000002</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>14.429169999999999</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>15.711959999999999</v>
-      </c>
-      <c r="AH15" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7">
-        <v>19.75299</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>83.333330000000004</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>2.2222219999999999</v>
-      </c>
-      <c r="AM15" s="7">
-        <v>10.81081</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>16.12903</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>25</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>2.044197</v>
-      </c>
-      <c r="AQ15" s="7">
-        <v>8.4548679999999994</v>
-      </c>
-      <c r="AR15" s="7">
-        <v>13.97077</v>
-      </c>
-      <c r="AS15" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58" ht="15">
+      <c r="R15" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="7">
-        <v>21.238479999999999</v>
+        <v>19.515370000000001</v>
       </c>
       <c r="D16" s="7">
         <v>83.334329999999994</v>
@@ -2930,128 +2624,49 @@
       <c r="E16" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F16" s="7">
-        <v>12.000999999999999</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="7">
-        <v>17.648060000000001</v>
+        <v>21.238479999999999</v>
       </c>
       <c r="H16" s="7">
-        <v>25.001000000000001</v>
+        <v>83.334329999999994</v>
       </c>
       <c r="I16" s="7">
-        <v>1.970715</v>
-      </c>
-      <c r="J16" s="7">
-        <v>7.891642</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="K16" s="7">
-        <v>14.39362</v>
+        <v>10.6965</v>
       </c>
       <c r="L16" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>10.6965</v>
-      </c>
+        <v>70.001000000000005</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7">
-        <v>70.001000000000005</v>
+        <v>7.7181189999999997</v>
       </c>
       <c r="P16" s="7">
-        <v>1E-3</v>
+        <v>74.343109999999996</v>
       </c>
       <c r="Q16" s="7">
-        <v>6.8191819999999996</v>
-      </c>
-      <c r="R16" s="7">
-        <v>9.63063</v>
-      </c>
-      <c r="S16" s="7">
-        <v>13.66466</v>
-      </c>
-      <c r="T16" s="7">
-        <v>1.9108350000000001</v>
-      </c>
-      <c r="U16" s="7">
-        <v>12.8734</v>
-      </c>
-      <c r="V16" s="7">
-        <v>6.2385900000000003</v>
-      </c>
-      <c r="W16" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7">
-        <v>7.7181189999999997</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>74.343109999999996</v>
-      </c>
-      <c r="AA16" s="7">
         <v>0.9016364</v>
       </c>
-      <c r="AB16" s="7">
-        <v>2.414793</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>3.7745850000000001</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>5.0010000000000003</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>3.5792730000000001</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>14.592700000000001</v>
-      </c>
-      <c r="AG16" s="7">
-        <v>15.516550000000001</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7">
-        <v>19.515370000000001</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>83.334329999999994</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>10.52732</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>16.001000000000001</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>24.001000000000001</v>
-      </c>
-      <c r="AP16" s="7">
-        <v>2.0566970000000002</v>
-      </c>
-      <c r="AQ16" s="7">
-        <v>8.5176230000000004</v>
-      </c>
-      <c r="AR16" s="7">
-        <v>13.989229999999999</v>
-      </c>
-      <c r="AS16" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="15">
+      <c r="R16" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7">
-        <v>0.24984580000000001</v>
+        <v>0.23961879999999999</v>
       </c>
       <c r="D17" s="7">
         <v>50.000999999999998</v>
@@ -3059,128 +2674,49 @@
       <c r="E17" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4"/>
+      <c r="G17" s="7">
+        <v>0.24984580000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>50.000999999999998</v>
+      </c>
+      <c r="I17" s="7">
         <v>1E-3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
+        <v>0.17477110000000001</v>
+      </c>
+      <c r="L17" s="7">
+        <v>35.644559999999998</v>
+      </c>
+      <c r="M17" s="7">
         <v>1E-3</v>
       </c>
-      <c r="H17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16.36731</v>
-      </c>
-      <c r="J17" s="7">
-        <v>416.04230000000001</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1.3969800000000001</v>
-      </c>
-      <c r="L17" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>0.17477110000000001</v>
+      <c r="N17" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="O17" s="7">
-        <v>35.644559999999998</v>
+        <v>0.84363489999999997</v>
       </c>
       <c r="P17" s="7">
-        <v>1E-3</v>
+        <v>3.2904740000000001</v>
       </c>
       <c r="Q17" s="7">
         <v>1E-3</v>
       </c>
-      <c r="R17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="S17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="T17" s="7">
-        <v>22.25433</v>
-      </c>
-      <c r="U17" s="7">
-        <v>626.64760000000001</v>
-      </c>
-      <c r="V17" s="7">
-        <v>1.144509</v>
-      </c>
-      <c r="W17" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7">
-        <v>0.84363489999999997</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>3.2904740000000001</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>0.64964860000000002</v>
-      </c>
-      <c r="AD17" s="7">
-        <v>1.2737270000000001</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>1.1501539999999999</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>3.7739630000000002</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>0.8621953</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7">
-        <v>0.23961879999999999</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>50.000999999999998</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>17.00996</v>
-      </c>
-      <c r="AQ17" s="7">
-        <v>439.1746</v>
-      </c>
-      <c r="AR17" s="7">
-        <v>1.3591</v>
-      </c>
-      <c r="AS17" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="15">
+      <c r="R17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="7">
-        <v>167.13399999999999</v>
+        <v>165.11349999999999</v>
       </c>
       <c r="D18" s="7">
         <v>462.50099999999998</v>
@@ -3188,128 +2724,49 @@
       <c r="E18" s="7">
         <v>33.250999999999998</v>
       </c>
-      <c r="F18" s="7">
-        <v>112.001</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="7">
-        <v>150.001</v>
+        <v>167.13399999999999</v>
       </c>
       <c r="H18" s="7">
-        <v>200.001</v>
+        <v>462.50099999999998</v>
       </c>
       <c r="I18" s="7">
-        <v>1.261342</v>
-      </c>
-      <c r="J18" s="7">
-        <v>4.8781790000000003</v>
-      </c>
+        <v>33.250999999999998</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7">
-        <v>82.408370000000005</v>
+        <v>155.14670000000001</v>
       </c>
       <c r="L18" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>155.14670000000001</v>
+        <v>462.50099999999998</v>
+      </c>
+      <c r="M18" s="7">
+        <v>33.250999999999998</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="O18" s="7">
-        <v>462.50099999999998</v>
+        <v>131.11699999999999</v>
       </c>
       <c r="P18" s="7">
-        <v>33.250999999999998</v>
+        <v>210.001</v>
       </c>
       <c r="Q18" s="7">
-        <v>120.001</v>
-      </c>
-      <c r="R18" s="7">
-        <v>148.85640000000001</v>
-      </c>
-      <c r="S18" s="7">
-        <v>185.001</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1.430267</v>
-      </c>
-      <c r="U18" s="7">
-        <v>8.3632969999999993</v>
-      </c>
-      <c r="V18" s="7">
-        <v>52.263010000000001</v>
-      </c>
-      <c r="W18" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7">
-        <v>131.11699999999999</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>210.001</v>
-      </c>
-      <c r="AA18" s="7">
         <v>78.788880000000006</v>
       </c>
-      <c r="AB18" s="7">
-        <v>107.54819999999999</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>126.3301</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>142.7895</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>0.98431630000000003</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>3.45173</v>
-      </c>
-      <c r="AG18" s="7">
-        <v>32.8872</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7">
-        <v>165.11349999999999</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>462.50099999999998</v>
-      </c>
-      <c r="AL18" s="7">
-        <v>33.250999999999998</v>
-      </c>
-      <c r="AM18" s="7">
-        <v>114.2867</v>
-      </c>
-      <c r="AN18" s="7">
-        <v>150.001</v>
-      </c>
-      <c r="AO18" s="7">
-        <v>200.001</v>
-      </c>
-      <c r="AP18" s="7">
-        <v>1.337118</v>
-      </c>
-      <c r="AQ18" s="7">
-        <v>5.3500110000000003</v>
-      </c>
-      <c r="AR18" s="7">
-        <v>78.411280000000005</v>
-      </c>
-      <c r="AS18" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" ht="15">
+      <c r="R18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7">
-        <v>115.8156</v>
+        <v>117.1956</v>
       </c>
       <c r="D19" s="7">
         <v>422.72829999999999</v>
@@ -3317,128 +2774,46 @@
       <c r="E19" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F19" s="7">
-        <v>32.000999999999998</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="7">
-        <v>104.3488</v>
+        <v>115.8156</v>
       </c>
       <c r="H19" s="7">
-        <v>172.41480000000001</v>
+        <v>422.72829999999999</v>
       </c>
       <c r="I19" s="7">
-        <v>0.76946420000000004</v>
-      </c>
-      <c r="J19" s="7">
-        <v>3.4883280000000001</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K19" s="7">
-        <v>94.109319999999997</v>
+        <v>124.13200000000001</v>
       </c>
       <c r="L19" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>124.13200000000001</v>
-      </c>
+        <v>415.2552</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7">
-        <v>415.2552</v>
+        <v>133.43289999999999</v>
       </c>
       <c r="P19" s="7">
-        <v>1E-3</v>
+        <v>258.46260000000001</v>
       </c>
       <c r="Q19" s="7">
-        <v>83.917659999999998</v>
-      </c>
-      <c r="R19" s="7">
-        <v>123.001</v>
-      </c>
-      <c r="S19" s="7">
-        <v>156.41890000000001</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0.52378429999999998</v>
-      </c>
-      <c r="U19" s="7">
-        <v>4.1755849999999999</v>
-      </c>
-      <c r="V19" s="7">
-        <v>60.564660000000003</v>
-      </c>
-      <c r="W19" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7">
-        <v>133.43289999999999</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>258.46260000000001</v>
-      </c>
-      <c r="AA19" s="7">
         <v>70.075069999999997</v>
       </c>
-      <c r="AB19" s="7">
-        <v>106.3301</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>129.23910000000001</v>
-      </c>
-      <c r="AD19" s="7">
-        <v>160.001</v>
-      </c>
-      <c r="AE19" s="7">
-        <v>0.91203599999999996</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>4.3341890000000003</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>40.158329999999999</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7">
-        <v>117.1956</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>422.72829999999999</v>
-      </c>
-      <c r="AL19" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM19" s="7">
-        <v>47.620049999999999</v>
-      </c>
-      <c r="AN19" s="7">
-        <v>110.8201</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>168.751</v>
-      </c>
-      <c r="AP19" s="7">
-        <v>0.74894000000000005</v>
-      </c>
-      <c r="AQ19" s="7">
-        <v>3.6715420000000001</v>
-      </c>
-      <c r="AR19" s="7">
-        <v>89.53313</v>
-      </c>
-      <c r="AS19" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="15">
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="7">
-        <v>150.62950000000001</v>
+        <v>149.69139999999999</v>
       </c>
       <c r="D20" s="7">
         <v>264.75510000000003</v>
@@ -3446,128 +2821,46 @@
       <c r="E20" s="7">
         <v>64.584339999999997</v>
       </c>
-      <c r="F20" s="7">
-        <v>94.445440000000005</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="7">
-        <v>140.40610000000001</v>
+        <v>150.62950000000001</v>
       </c>
       <c r="H20" s="7">
-        <v>200.001</v>
+        <v>264.75510000000003</v>
       </c>
       <c r="I20" s="7">
-        <v>0.39611740000000001</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1.941179</v>
+        <v>64.584339999999997</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K20" s="7">
-        <v>66.107320000000001</v>
+        <v>144.59909999999999</v>
       </c>
       <c r="L20" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
-        <v>144.59909999999999</v>
-      </c>
+        <v>264.75510000000003</v>
+      </c>
+      <c r="M20" s="7">
+        <v>64.584339999999997</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7">
-        <v>264.75510000000003</v>
+        <v>158.93129999999999</v>
       </c>
       <c r="P20" s="7">
+        <v>253.92509999999999</v>
+      </c>
+      <c r="Q20" s="7">
         <v>64.584339999999997</v>
       </c>
-      <c r="Q20" s="7">
-        <v>96.468890000000002</v>
-      </c>
-      <c r="R20" s="7">
-        <v>138.15889999999999</v>
-      </c>
-      <c r="S20" s="7">
-        <v>185.13140000000001</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.4125393</v>
-      </c>
-      <c r="U20" s="7">
-        <v>2.1827860000000001</v>
-      </c>
-      <c r="V20" s="7">
-        <v>56.241869999999999</v>
-      </c>
-      <c r="W20" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7">
-        <v>158.93129999999999</v>
-      </c>
-      <c r="Z20" s="7">
-        <v>253.92509999999999</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>64.584339999999997</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>123.9067</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>163.53100000000001</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>193.24170000000001</v>
-      </c>
-      <c r="AE20" s="7">
-        <v>8.88959E-2</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>2.0399989999999999</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>52.218229999999998</v>
-      </c>
-      <c r="AH20" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7">
-        <v>149.69139999999999</v>
-      </c>
-      <c r="AK20" s="7">
-        <v>264.75510000000003</v>
-      </c>
-      <c r="AL20" s="7">
-        <v>64.584339999999997</v>
-      </c>
-      <c r="AM20" s="7">
-        <v>95.001000000000005</v>
-      </c>
-      <c r="AN20" s="7">
-        <v>140.001</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>197.501</v>
-      </c>
-      <c r="AP20" s="7">
-        <v>0.40877580000000002</v>
-      </c>
-      <c r="AQ20" s="7">
-        <v>1.9940640000000001</v>
-      </c>
-      <c r="AR20" s="7">
-        <v>64.630589999999998</v>
-      </c>
-      <c r="AS20" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="15">
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7">
-        <v>125.0402</v>
+        <v>120.6105</v>
       </c>
       <c r="D21" s="7">
         <v>618.00099999999998</v>
@@ -3575,386 +2868,148 @@
       <c r="E21" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F21" s="7">
-        <v>66.667659999999998</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="7">
-        <v>105.001</v>
+        <v>125.0402</v>
       </c>
       <c r="H21" s="7">
-        <v>155.001</v>
+        <v>618.00099999999998</v>
       </c>
       <c r="I21" s="7">
-        <v>2.4067349999999998</v>
-      </c>
-      <c r="J21" s="7">
-        <v>11.01797</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K21" s="7">
-        <v>100.3433</v>
+        <v>98.937560000000005</v>
       </c>
       <c r="L21" s="7">
-        <v>8188</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>98.937560000000005</v>
+        <v>618.00099999999998</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="O21" s="7">
-        <v>618.00099999999998</v>
+        <v>38.007159999999999</v>
       </c>
       <c r="P21" s="7">
-        <v>1E-3</v>
+        <v>159.49600000000001</v>
       </c>
       <c r="Q21" s="7">
-        <v>52.201000000000001</v>
-      </c>
-      <c r="R21" s="7">
-        <v>94.672529999999995</v>
-      </c>
-      <c r="S21" s="7">
-        <v>137.70740000000001</v>
-      </c>
-      <c r="T21" s="7">
-        <v>1.9422980000000001</v>
-      </c>
-      <c r="U21" s="7">
-        <v>15.834709999999999</v>
-      </c>
-      <c r="V21" s="7">
-        <v>61.121650000000002</v>
-      </c>
-      <c r="W21" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7">
-        <v>38.007159999999999</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>159.49600000000001</v>
-      </c>
-      <c r="AA21" s="7">
         <v>4.1496490000000001</v>
       </c>
-      <c r="AB21" s="7">
-        <v>11.258139999999999</v>
-      </c>
-      <c r="AC21" s="7">
-        <v>16.884250000000002</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>41.137839999999997</v>
-      </c>
-      <c r="AE21" s="7">
-        <v>1.782354</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>4.9027289999999999</v>
-      </c>
-      <c r="AG21" s="7">
-        <v>45.594070000000002</v>
-      </c>
-      <c r="AH21" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7">
-        <v>120.6105</v>
-      </c>
-      <c r="AK21" s="7">
-        <v>618.00099999999998</v>
-      </c>
-      <c r="AL21" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM21" s="7">
-        <v>63.22907</v>
-      </c>
-      <c r="AN21" s="7">
-        <v>103.3343</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>151.17060000000001</v>
-      </c>
-      <c r="AP21" s="7">
-        <v>2.488073</v>
-      </c>
-      <c r="AQ21" s="7">
-        <v>11.999879999999999</v>
-      </c>
-      <c r="AR21" s="7">
-        <v>95.624380000000002</v>
-      </c>
-      <c r="AS21" s="24">
-        <v>9780</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" ht="15">
+      <c r="R21" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7">
+        <v>0.1242084</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7">
         <v>0.1238107</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>2.2843279999999999</v>
-      </c>
-      <c r="J22" s="7">
-        <v>6.218153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="7">
-        <v>0.3293855</v>
+        <v>0.1247601</v>
       </c>
       <c r="L22" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7">
-        <v>0.1247601</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7">
-        <v>1</v>
+        <v>0.20689660000000001</v>
       </c>
       <c r="P22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="7">
         <v>0</v>
       </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <v>2.2711070000000002</v>
-      </c>
-      <c r="U22" s="7">
-        <v>6.1579280000000001</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0.33055240000000002</v>
-      </c>
-      <c r="W22" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7">
-        <v>0.20689660000000001</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="7">
-        <v>1.447136</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>3.0942029999999998</v>
-      </c>
-      <c r="AG22" s="7">
-        <v>0.41225079999999997</v>
-      </c>
-      <c r="AH22" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7">
-        <v>0.1242084</v>
-      </c>
-      <c r="AK22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="7">
-        <v>2.2787739999999999</v>
-      </c>
-      <c r="AQ22" s="7">
-        <v>6.1928109999999998</v>
-      </c>
-      <c r="AR22" s="7">
-        <v>0.32983600000000002</v>
-      </c>
-      <c r="AS22" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" ht="15">
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="7">
+        <v>1.09731</v>
+      </c>
+      <c r="D23" s="7">
+        <v>297</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7">
         <v>0.88715520000000003</v>
       </c>
-      <c r="D23" s="7">
+      <c r="H23" s="7">
         <v>9</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.44166670000000002</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1.0428569999999999</v>
-      </c>
       <c r="I23" s="7">
-        <v>3.798962</v>
-      </c>
-      <c r="J23" s="7">
-        <v>26.726459999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K23" s="7">
-        <v>0.78620409999999996</v>
+        <v>1.944841</v>
       </c>
       <c r="L23" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7">
-        <v>1.944841</v>
+        <v>14.1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.18181820000000001</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="O23" s="7">
-        <v>14.1</v>
+        <v>14.82687</v>
       </c>
       <c r="P23" s="7">
-        <v>0.18181820000000001</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1.142857</v>
-      </c>
-      <c r="S23" s="7">
-        <v>2.3333330000000001</v>
-      </c>
-      <c r="T23" s="7">
-        <v>2.4748039999999998</v>
-      </c>
-      <c r="U23" s="7">
-        <v>10.26436</v>
-      </c>
-      <c r="V23" s="7">
-        <v>2.0585689999999999</v>
-      </c>
-      <c r="W23" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7">
-        <v>14.82687</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>297</v>
-      </c>
-      <c r="AA23" s="7">
         <v>0.75</v>
       </c>
-      <c r="AB23" s="7">
-        <v>1.3174999999999999</v>
-      </c>
-      <c r="AC23" s="7">
-        <v>1.825</v>
-      </c>
-      <c r="AD23" s="7">
-        <v>9.85</v>
-      </c>
-      <c r="AE23" s="7">
-        <v>5.0512810000000004</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>26.698440000000002</v>
-      </c>
-      <c r="AG23" s="7">
-        <v>54.44079</v>
-      </c>
-      <c r="AH23" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7">
-        <v>1.09731</v>
-      </c>
-      <c r="AK23" s="7">
-        <v>297</v>
-      </c>
-      <c r="AL23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="7">
-        <v>0.47777779999999997</v>
-      </c>
-      <c r="AN23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AO23" s="7">
-        <v>1.1875</v>
-      </c>
-      <c r="AP23" s="7">
-        <v>79.349879999999999</v>
-      </c>
-      <c r="AQ23" s="7">
-        <v>7268.11</v>
-      </c>
-      <c r="AR23" s="7">
-        <v>3.2220209999999998</v>
-      </c>
-      <c r="AS23" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="15">
+      <c r="R23" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7">
-        <v>0.73470530000000001</v>
+        <v>0.74004230000000004</v>
       </c>
       <c r="D24" s="7">
         <v>2.5</v>
@@ -3962,386 +3017,140 @@
       <c r="E24" s="7">
         <v>0</v>
       </c>
-      <c r="F24" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="7">
-        <v>0.66666669999999995</v>
+        <v>0.73470530000000001</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="I24" s="7">
-        <v>1.674323</v>
-      </c>
-      <c r="J24" s="7">
-        <v>8.6648969999999998</v>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K24" s="7">
-        <v>0.38328269999999998</v>
+        <v>0.76594189999999995</v>
       </c>
       <c r="L24" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7">
-        <v>0.76594189999999995</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7">
-        <v>2.5</v>
+        <v>0.85287360000000001</v>
       </c>
       <c r="P24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="7">
         <v>0.5</v>
       </c>
-      <c r="R24" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="7">
-        <v>1.7921260000000001</v>
-      </c>
-      <c r="U24" s="7">
-        <v>9.0546000000000006</v>
-      </c>
-      <c r="V24" s="7">
-        <v>0.37734630000000002</v>
-      </c>
-      <c r="W24" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7">
-        <v>0.85287360000000001</v>
-      </c>
-      <c r="Z24" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="AC24" s="7">
-        <v>0.83333330000000005</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="7">
-        <v>1.4417709999999999</v>
-      </c>
-      <c r="AF24" s="7">
-        <v>5.338311</v>
-      </c>
-      <c r="AG24" s="7">
-        <v>0.3515857</v>
-      </c>
-      <c r="AH24" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7">
-        <v>0.74004230000000004</v>
-      </c>
-      <c r="AK24" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="AL24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="AN24" s="7">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="AO24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="7">
-        <v>1.6877310000000001</v>
-      </c>
-      <c r="AQ24" s="7">
-        <v>8.7051420000000004</v>
-      </c>
-      <c r="AR24" s="7">
-        <v>0.38243579999999999</v>
-      </c>
-      <c r="AS24" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" ht="15">
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7">
+        <v>0.69114799999999998</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7">
         <v>0.71795319999999996</v>
       </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.57944490000000004</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.79421810000000004</v>
-      </c>
       <c r="H25" s="7">
-        <v>0.91582719999999995</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>-1.077394</v>
-      </c>
-      <c r="J25" s="7">
-        <v>3.3616090000000001</v>
+        <v>0</v>
       </c>
       <c r="K25" s="7">
-        <v>0.24765960000000001</v>
+        <v>0.55869539999999995</v>
       </c>
       <c r="L25" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <v>0.55869539999999995</v>
+        <v>0.97834739999999998</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="O25" s="7">
-        <v>0.97834739999999998</v>
+        <v>0.25232270000000001</v>
       </c>
       <c r="P25" s="7">
-        <v>0</v>
+        <v>0.85547890000000004</v>
       </c>
       <c r="Q25" s="7">
-        <v>0.36220180000000002</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0.59254039999999997</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0.75715140000000003</v>
-      </c>
-      <c r="T25" s="7">
-        <v>-0.33770230000000001</v>
-      </c>
-      <c r="U25" s="7">
-        <v>2.007101</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0.2396548</v>
-      </c>
-      <c r="W25" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7">
-        <v>0.25232270000000001</v>
-      </c>
-      <c r="Z25" s="7">
-        <v>0.85547890000000004</v>
-      </c>
-      <c r="AA25" s="7">
         <v>3.2248800000000001E-2</v>
       </c>
-      <c r="AB25" s="7">
-        <v>9.7459299999999999E-2</v>
-      </c>
-      <c r="AC25" s="7">
-        <v>0.15626950000000001</v>
-      </c>
-      <c r="AD25" s="7">
-        <v>0.29532190000000003</v>
-      </c>
-      <c r="AE25" s="7">
-        <v>1.443112</v>
-      </c>
-      <c r="AF25" s="7">
-        <v>3.9833430000000001</v>
-      </c>
-      <c r="AG25" s="7">
-        <v>0.2269987</v>
-      </c>
-      <c r="AH25" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7">
-        <v>0.69114799999999998</v>
-      </c>
-      <c r="AK25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="7">
-        <v>0.53899109999999995</v>
-      </c>
-      <c r="AN25" s="7">
-        <v>0.76323459999999999</v>
-      </c>
-      <c r="AO25" s="7">
-        <v>0.89915820000000002</v>
-      </c>
-      <c r="AP25" s="7">
-        <v>-0.89489770000000002</v>
-      </c>
-      <c r="AQ25" s="7">
-        <v>2.8788200000000002</v>
-      </c>
-      <c r="AR25" s="7">
-        <v>0.25425510000000001</v>
-      </c>
-      <c r="AS25" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" ht="15">
+      <c r="R25" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7">
+        <v>0.60143000000000002</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7">
         <v>0.5985606</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>-0.40213270000000001</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1.1617109999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7"/>
       <c r="K26" s="7">
-        <v>0.49021949999999997</v>
+        <v>0.61740240000000002</v>
       </c>
       <c r="L26" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7">
-        <v>0.61740240000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7">
-        <v>1</v>
+        <v>0.55172410000000005</v>
       </c>
       <c r="P26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="7">
         <v>0</v>
       </c>
-      <c r="R26" s="7">
-        <v>1</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-      <c r="T26" s="7">
-        <v>-0.4831164</v>
-      </c>
-      <c r="U26" s="7">
-        <v>1.233401</v>
-      </c>
-      <c r="V26" s="7">
-        <v>0.48617680000000002</v>
-      </c>
-      <c r="W26" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7">
-        <v>0.55172410000000005</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>-0.20801259999999999</v>
-      </c>
-      <c r="AF26" s="7">
-        <v>1.043269</v>
-      </c>
-      <c r="AG26" s="7">
-        <v>0.50612020000000002</v>
-      </c>
-      <c r="AH26" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7">
-        <v>0.60143000000000002</v>
-      </c>
-      <c r="AK26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="7">
-        <v>-0.41433510000000001</v>
-      </c>
-      <c r="AQ26" s="7">
-        <v>1.1716740000000001</v>
-      </c>
-      <c r="AR26" s="7">
-        <v>0.48962889999999998</v>
-      </c>
-      <c r="AS26" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" ht="15">
+    </row>
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7">
-        <v>54.79213</v>
+        <v>54.690869999999997</v>
       </c>
       <c r="D27" s="7">
         <v>76</v>
@@ -4349,128 +3158,46 @@
       <c r="E27" s="7">
         <v>31</v>
       </c>
-      <c r="F27" s="7">
-        <v>52</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="7">
-        <v>54.700270000000003</v>
+        <v>54.79213</v>
       </c>
       <c r="H27" s="7">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I27" s="7">
-        <v>-0.24969859999999999</v>
-      </c>
-      <c r="J27" s="7">
-        <v>3.6936260000000001</v>
+        <v>31</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="K27" s="7">
-        <v>8.5297529999999995</v>
+        <v>54.204509999999999</v>
       </c>
       <c r="L27" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7">
-        <v>54.204509999999999</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M27" s="7">
+        <v>31</v>
+      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="7">
-        <v>76</v>
+        <v>52.279429999999998</v>
       </c>
       <c r="P27" s="7">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="7">
-        <v>51</v>
-      </c>
-      <c r="R27" s="7">
-        <v>54.700270000000003</v>
-      </c>
-      <c r="S27" s="7">
-        <v>57</v>
-      </c>
-      <c r="T27" s="7">
-        <v>-0.38427359999999999</v>
-      </c>
-      <c r="U27" s="7">
-        <v>4.3057400000000001</v>
-      </c>
-      <c r="V27" s="7">
-        <v>7.1515420000000001</v>
-      </c>
-      <c r="W27" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7">
-        <v>52.279429999999998</v>
-      </c>
-      <c r="Z27" s="7">
-        <v>65</v>
-      </c>
-      <c r="AA27" s="7">
         <v>39</v>
       </c>
-      <c r="AB27" s="7">
-        <v>49</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>54.700270000000003</v>
-      </c>
-      <c r="AD27" s="7">
-        <v>54.700270000000003</v>
-      </c>
-      <c r="AE27" s="7">
-        <v>-0.44459769999999998</v>
-      </c>
-      <c r="AF27" s="7">
-        <v>3.306349</v>
-      </c>
-      <c r="AG27" s="7">
-        <v>5.8965019999999999</v>
-      </c>
-      <c r="AH27" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7">
-        <v>54.690869999999997</v>
-      </c>
-      <c r="AK27" s="7">
-        <v>76</v>
-      </c>
-      <c r="AL27" s="7">
-        <v>31</v>
-      </c>
-      <c r="AM27" s="7">
-        <v>52</v>
-      </c>
-      <c r="AN27" s="7">
-        <v>54.700270000000003</v>
-      </c>
-      <c r="AO27" s="7">
-        <v>59</v>
-      </c>
-      <c r="AP27" s="7">
-        <v>-0.25442930000000002</v>
-      </c>
-      <c r="AQ27" s="7">
-        <v>3.7936830000000001</v>
-      </c>
-      <c r="AR27" s="7">
-        <v>8.3215479999999999</v>
-      </c>
-      <c r="AS27" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" ht="15">
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7">
-        <v>6.6815280000000001</v>
+        <v>6.644279</v>
       </c>
       <c r="D28" s="7">
         <v>16</v>
@@ -4478,257 +3205,101 @@
       <c r="E28" s="7">
         <v>0</v>
       </c>
-      <c r="F28" s="7">
-        <v>6</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="7">
-        <v>6.644279</v>
+        <v>6.6815280000000001</v>
       </c>
       <c r="H28" s="7">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="7">
+        <v>6.4689379999999996</v>
+      </c>
+      <c r="L28" s="7">
+        <v>13</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
+        <v>5.5646769999999997</v>
+      </c>
+      <c r="P28" s="7">
         <v>8</v>
       </c>
-      <c r="I28" s="7">
-        <v>-0.1050164</v>
-      </c>
-      <c r="J28" s="7">
-        <v>4.9243249999999996</v>
-      </c>
-      <c r="K28" s="7">
-        <v>2.0346799999999998</v>
-      </c>
-      <c r="L28" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7">
-        <v>6.4689379999999996</v>
-      </c>
-      <c r="O28" s="7">
-        <v>13</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
       <c r="Q28" s="7">
-        <v>5</v>
-      </c>
-      <c r="R28" s="7">
-        <v>6.644279</v>
-      </c>
-      <c r="S28" s="7">
-        <v>8</v>
-      </c>
-      <c r="T28" s="7">
-        <v>-0.3363333</v>
-      </c>
-      <c r="U28" s="7">
-        <v>4.1386419999999999</v>
-      </c>
-      <c r="V28" s="7">
-        <v>2.0743330000000002</v>
-      </c>
-      <c r="W28" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7">
-        <v>5.5646769999999997</v>
-      </c>
-      <c r="Z28" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA28" s="7">
         <v>3</v>
       </c>
-      <c r="AB28" s="7">
-        <v>5</v>
-      </c>
-      <c r="AC28" s="7">
-        <v>6</v>
-      </c>
-      <c r="AD28" s="7">
-        <v>6.644279</v>
-      </c>
-      <c r="AE28" s="7">
-        <v>-0.82059090000000001</v>
-      </c>
-      <c r="AF28" s="7">
-        <v>2.1753529999999999</v>
-      </c>
-      <c r="AG28" s="7">
-        <v>1.568673</v>
-      </c>
-      <c r="AH28" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7">
-        <v>6.644279</v>
-      </c>
-      <c r="AK28" s="7">
-        <v>16</v>
-      </c>
-      <c r="AL28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="7">
-        <v>6</v>
-      </c>
-      <c r="AN28" s="7">
-        <v>6.644279</v>
-      </c>
-      <c r="AO28" s="7">
-        <v>8</v>
-      </c>
-      <c r="AP28" s="7">
-        <v>-0.14441219999999999</v>
-      </c>
-      <c r="AQ28" s="7">
-        <v>4.7966430000000004</v>
-      </c>
-      <c r="AR28" s="7">
-        <v>2.042008</v>
-      </c>
-      <c r="AS28" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" ht="15">
+      <c r="R28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7">
+        <v>4.8518899999999997E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7">
         <v>4.5254900000000001E-2</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>4.3754350000000004</v>
-      </c>
-      <c r="J29" s="7">
-        <v>20.144439999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K29" s="7">
-        <v>0.20787539999999999</v>
+        <v>6.3339699999999999E-2</v>
       </c>
       <c r="L29" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7">
-        <v>6.3339699999999999E-2</v>
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="O29" s="7">
-        <v>1</v>
+        <v>0.17241380000000001</v>
       </c>
       <c r="P29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="7">
         <v>0</v>
       </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7">
-        <v>3.5854569999999999</v>
-      </c>
-      <c r="U29" s="7">
-        <v>13.855499999999999</v>
-      </c>
-      <c r="V29" s="7">
-        <v>0.24365100000000001</v>
-      </c>
-      <c r="W29" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7">
-        <v>0.17241380000000001</v>
-      </c>
-      <c r="Z29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="7">
-        <v>1.7344550000000001</v>
-      </c>
-      <c r="AF29" s="7">
-        <v>4.0083330000000004</v>
-      </c>
-      <c r="AG29" s="7">
-        <v>0.38442589999999999</v>
-      </c>
-      <c r="AH29" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7">
-        <v>4.8518899999999997E-2</v>
-      </c>
-      <c r="AK29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="7">
-        <v>4.2025610000000002</v>
-      </c>
-      <c r="AQ29" s="7">
-        <v>18.661519999999999</v>
-      </c>
-      <c r="AR29" s="7">
-        <v>0.21487100000000001</v>
-      </c>
-      <c r="AS29" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" ht="15">
+      <c r="R29" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7">
-        <v>4.1818739999999996</v>
+        <v>4.1930540000000001</v>
       </c>
       <c r="D30" s="7">
         <v>5</v>
@@ -4736,268 +3307,129 @@
       <c r="E30" s="7">
         <v>1</v>
       </c>
-      <c r="F30" s="7">
-        <v>4</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="7">
-        <v>4</v>
+        <v>4.1818739999999996</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>-0.58141699999999996</v>
-      </c>
-      <c r="J30" s="7">
-        <v>5.9339339999999998</v>
+        <v>1</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K30" s="7">
-        <v>0.5885975</v>
+        <v>4.2495200000000004</v>
       </c>
       <c r="L30" s="7">
-        <v>8198</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7">
-        <v>4.2495200000000004</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="7">
+        <v>4.3103449999999999</v>
+      </c>
+      <c r="P30" s="7">
         <v>5</v>
-      </c>
-      <c r="P30" s="7">
-        <v>1</v>
       </c>
       <c r="Q30" s="7">
         <v>4</v>
       </c>
-      <c r="R30" s="7">
-        <v>4</v>
-      </c>
-      <c r="S30" s="7">
-        <v>5</v>
-      </c>
-      <c r="T30" s="7">
-        <v>-0.62422089999999997</v>
-      </c>
-      <c r="U30" s="7">
-        <v>4.6089589999999996</v>
-      </c>
-      <c r="V30" s="7">
-        <v>0.63441990000000004</v>
-      </c>
-      <c r="W30" s="7">
-        <v>1563</v>
-      </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7">
-        <v>4.3103449999999999</v>
-      </c>
-      <c r="Z30" s="7">
-        <v>5</v>
-      </c>
-      <c r="AA30" s="7">
-        <v>4</v>
-      </c>
-      <c r="AB30" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>5</v>
-      </c>
-      <c r="AE30" s="7">
-        <v>0.81989160000000005</v>
-      </c>
-      <c r="AF30" s="7">
-        <v>1.6722220000000001</v>
-      </c>
-      <c r="AG30" s="7">
-        <v>0.47082360000000001</v>
-      </c>
-      <c r="AH30" s="7">
-        <v>29</v>
-      </c>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7">
-        <v>4.1930540000000001</v>
-      </c>
-      <c r="AK30" s="7">
-        <v>5</v>
-      </c>
-      <c r="AL30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN30" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO30" s="7">
-        <v>5</v>
-      </c>
-      <c r="AP30" s="7">
-        <v>-0.58029189999999997</v>
-      </c>
-      <c r="AQ30" s="7">
-        <v>5.6616900000000001</v>
-      </c>
-      <c r="AR30" s="7">
-        <v>0.59633570000000002</v>
-      </c>
-      <c r="AS30" s="24">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" ht="15">
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="8">
+        <v>0.17221649999999999</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8">
         <v>0.1695535</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
       <c r="H31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="8">
-        <v>1.761253</v>
-      </c>
-      <c r="J31" s="8">
-        <v>4.1020130000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" s="8"/>
       <c r="K31" s="8">
-        <v>0.37526300000000001</v>
+        <v>0.18426100000000001</v>
       </c>
       <c r="L31" s="8">
-        <v>8198</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8">
-        <v>0.18426100000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="8">
-        <v>1</v>
+        <v>0.2758621</v>
       </c>
       <c r="P31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="8">
         <v>0</v>
       </c>
-      <c r="R31" s="8">
-        <v>0</v>
-      </c>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
-      <c r="T31" s="8">
-        <v>1.6287929999999999</v>
-      </c>
-      <c r="U31" s="8">
-        <v>3.6529660000000002</v>
-      </c>
-      <c r="V31" s="8">
-        <v>0.38782100000000003</v>
-      </c>
-      <c r="W31" s="8">
-        <v>1563</v>
-      </c>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8">
-        <v>0.2758621</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="8">
-        <v>1.002972</v>
-      </c>
-      <c r="AF31" s="8">
-        <v>2.0059520000000002</v>
-      </c>
-      <c r="AG31" s="8">
-        <v>0.45485880000000001</v>
-      </c>
-      <c r="AH31" s="8">
-        <v>29</v>
-      </c>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8">
-        <v>0.17221649999999999</v>
-      </c>
-      <c r="AK31" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="8">
-        <v>1.736286</v>
-      </c>
-      <c r="AQ31" s="8">
-        <v>4.0146879999999996</v>
-      </c>
-      <c r="AR31" s="8">
-        <v>0.37758779999999997</v>
-      </c>
-      <c r="AS31" s="25">
-        <v>9790</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" ht="15">
-      <c r="A33" s="28" t="s">
+    </row>
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+    </row>
+    <row r="33" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-    </row>
-    <row r="34" spans="1:45" ht="15">
-      <c r="A34" s="29" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="3"/>
@@ -5053,8 +3485,8 @@
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
     </row>
-    <row r="35" spans="1:45" ht="15">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="31"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
         <v>20</v>
@@ -5180,7 +3612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="15">
+    <row r="36" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
@@ -5309,7 +3741,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="15">
+    <row r="37" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
@@ -5438,7 +3870,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="15">
+    <row r="38" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
@@ -5567,7 +3999,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="15">
+    <row r="39" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
@@ -5696,7 +4128,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="15">
+    <row r="40" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
@@ -5825,7 +4257,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="15">
+    <row r="41" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
@@ -5954,7 +4386,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="15">
+    <row r="42" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -6083,7 +4515,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="15">
+    <row r="43" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -6212,7 +4644,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="15">
+    <row r="44" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -6341,7 +4773,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="15">
+    <row r="45" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -6470,7 +4902,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="15">
+    <row r="46" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
@@ -6599,7 +5031,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="15">
+    <row r="47" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -6728,7 +5160,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="15">
+    <row r="48" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -6857,7 +5289,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="15">
+    <row r="49" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
@@ -6986,7 +5418,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="15">
+    <row r="50" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>15</v>
       </c>
@@ -7115,7 +5547,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="15">
+    <row r="51" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>16</v>
       </c>
@@ -7244,7 +5676,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="15">
+    <row r="52" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
@@ -7373,7 +5805,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="15">
+    <row r="53" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
@@ -7502,7 +5934,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="15">
+    <row r="54" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
@@ -7631,24 +6063,24 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="15">
-      <c r="A57" s="28" t="s">
+    <row r="57" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A57" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-    </row>
-    <row r="58" spans="1:45" ht="15">
-      <c r="A58" s="29" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+    </row>
+    <row r="58" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A58" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="3"/>
@@ -7704,8 +6136,8 @@
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
     </row>
-    <row r="59" spans="1:45" ht="15">
-      <c r="A59" s="30"/>
+    <row r="59" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A59" s="31"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
         <v>20</v>
@@ -7831,7 +6263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="15">
+    <row r="60" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>0</v>
       </c>
@@ -7960,7 +6392,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="15">
+    <row r="61" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>1</v>
       </c>
@@ -8089,7 +6521,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="15">
+    <row r="62" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>2</v>
       </c>
@@ -8218,7 +6650,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="15">
+    <row r="63" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>3</v>
       </c>
@@ -8347,7 +6779,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="15">
+    <row r="64" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +6908,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="15">
+    <row r="65" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>5</v>
       </c>
@@ -8605,7 +7037,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="15">
+    <row r="66" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
@@ -8734,7 +7166,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="15">
+    <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -8863,7 +7295,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="15">
+    <row r="68" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
@@ -8992,7 +7424,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="15">
+    <row r="69" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -9121,7 +7553,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="15">
+    <row r="70" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -9250,7 +7682,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="15">
+    <row r="71" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -9379,7 +7811,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="15">
+    <row r="72" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>12</v>
       </c>
@@ -9508,7 +7940,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="15">
+    <row r="73" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -9637,7 +8069,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="15">
+    <row r="74" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>15</v>
       </c>
@@ -9766,7 +8198,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="15">
+    <row r="75" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>16</v>
       </c>
@@ -9895,7 +8327,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="15">
+    <row r="76" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>17</v>
       </c>
@@ -10024,7 +8456,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="15">
+    <row r="77" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>18</v>
       </c>
@@ -10153,7 +8585,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="15">
+    <row r="78" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
         <v>19</v>
       </c>
@@ -10282,24 +8714,24 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="81" spans="1:45" ht="15">
-      <c r="A81" s="28" t="s">
+    <row r="81" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A81" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-    </row>
-    <row r="82" spans="1:45" ht="15">
-      <c r="A82" s="29" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+    </row>
+    <row r="82" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A82" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B82" s="3"/>
@@ -10355,8 +8787,8 @@
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
     </row>
-    <row r="83" spans="1:45" ht="15">
-      <c r="A83" s="30"/>
+    <row r="83" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A83" s="31"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
         <v>20</v>
@@ -10482,7 +8914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:45" ht="15">
+    <row r="84" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>0</v>
       </c>
@@ -10611,7 +9043,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="85" spans="1:45" ht="15">
+    <row r="85" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>1</v>
       </c>
@@ -10740,7 +9172,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="86" spans="1:45" ht="15">
+    <row r="86" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>2</v>
       </c>
@@ -10869,7 +9301,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="87" spans="1:45" ht="15">
+    <row r="87" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>3</v>
       </c>
@@ -10998,7 +9430,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="88" spans="1:45" ht="15">
+    <row r="88" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
@@ -11127,7 +9559,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="89" spans="1:45" ht="15">
+    <row r="89" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>5</v>
       </c>
@@ -11256,7 +9688,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="90" spans="1:45" ht="15">
+    <row r="90" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>6</v>
       </c>
@@ -11385,7 +9817,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="91" spans="1:45" ht="15">
+    <row r="91" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -11514,7 +9946,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="92" spans="1:45" ht="15">
+    <row r="92" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>8</v>
       </c>
@@ -11643,7 +10075,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="93" spans="1:45" ht="15">
+    <row r="93" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>9</v>
       </c>
@@ -11772,7 +10204,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="94" spans="1:45" ht="15">
+    <row r="94" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>10</v>
       </c>
@@ -11901,7 +10333,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="15">
+    <row r="95" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -12030,7 +10462,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="1:45" ht="15">
+    <row r="96" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
@@ -12159,7 +10591,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="15">
+    <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -12288,7 +10720,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="15">
+    <row r="98" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>15</v>
       </c>
@@ -12417,7 +10849,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="15">
+    <row r="99" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>16</v>
       </c>
@@ -12546,7 +10978,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="15">
+    <row r="100" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>17</v>
       </c>
@@ -12675,7 +11107,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="15">
+    <row r="101" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>18</v>
       </c>
@@ -12804,7 +11236,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="15">
+    <row r="102" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>19</v>
       </c>
@@ -12933,24 +11365,24 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="15">
-      <c r="A104" s="28" t="s">
+    <row r="104" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A104" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
-    </row>
-    <row r="105" spans="1:45" ht="15">
-      <c r="A105" s="29" t="s">
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+    </row>
+    <row r="105" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A105" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B105" s="3"/>
@@ -13006,8 +11438,8 @@
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
     </row>
-    <row r="106" spans="1:45" ht="15">
-      <c r="A106" s="30"/>
+    <row r="106" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A106" s="31"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6" t="s">
         <v>20</v>
@@ -13133,7 +11565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="15">
+    <row r="107" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>0</v>
       </c>
@@ -13262,7 +11694,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="15">
+    <row r="108" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>1</v>
       </c>
@@ -13391,7 +11823,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="15">
+    <row r="109" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>2</v>
       </c>
@@ -13520,7 +11952,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="15">
+    <row r="110" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>3</v>
       </c>
@@ -13649,7 +12081,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="15">
+    <row r="111" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
@@ -13778,7 +12210,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="15">
+    <row r="112" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>5</v>
       </c>
@@ -13907,7 +12339,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="15">
+    <row r="113" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>6</v>
       </c>
@@ -14036,7 +12468,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="15">
+    <row r="114" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -14165,7 +12597,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="15">
+    <row r="115" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>8</v>
       </c>
@@ -14294,7 +12726,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="15">
+    <row r="116" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
@@ -14423,7 +12855,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="15">
+    <row r="117" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>10</v>
       </c>
@@ -14552,7 +12984,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="15">
+    <row r="118" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -14681,7 +13113,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="15">
+    <row r="119" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>12</v>
       </c>
@@ -14810,7 +13242,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="15">
+    <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>14</v>
       </c>
@@ -14939,7 +13371,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="15">
+    <row r="121" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>15</v>
       </c>
@@ -15068,7 +13500,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="15">
+    <row r="122" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>16</v>
       </c>
@@ -15197,7 +13629,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="15">
+    <row r="123" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>17</v>
       </c>
@@ -15326,7 +13758,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="15">
+    <row r="124" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>18</v>
       </c>
@@ -15455,7 +13887,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="15">
+    <row r="125" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
         <v>19</v>
       </c>
@@ -15584,24 +14016,24 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="15">
-      <c r="A127" s="28" t="s">
+    <row r="127" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A127" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28"/>
-    </row>
-    <row r="128" spans="1:45" ht="15">
-      <c r="A128" s="29" t="s">
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+    </row>
+    <row r="128" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A128" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B128" s="3"/>
@@ -15657,8 +14089,8 @@
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
     </row>
-    <row r="129" spans="1:45" ht="15">
-      <c r="A129" s="30"/>
+    <row r="129" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A129" s="31"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>20</v>
@@ -15784,7 +14216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:45" ht="15">
+    <row r="130" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>0</v>
       </c>
@@ -15913,7 +14345,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="131" spans="1:45" ht="15">
+    <row r="131" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>1</v>
       </c>
@@ -16042,7 +14474,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="132" spans="1:45" ht="15">
+    <row r="132" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>2</v>
       </c>
@@ -16171,7 +14603,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="133" spans="1:45" ht="15">
+    <row r="133" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>3</v>
       </c>
@@ -16300,7 +14732,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="134" spans="1:45" ht="15">
+    <row r="134" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
@@ -16429,7 +14861,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="15">
+    <row r="135" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>5</v>
       </c>
@@ -16558,7 +14990,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="15">
+    <row r="136" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>6</v>
       </c>
@@ -16687,7 +15119,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="15">
+    <row r="137" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -16816,7 +15248,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="15">
+    <row r="138" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>8</v>
       </c>
@@ -16945,7 +15377,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="15">
+    <row r="139" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>9</v>
       </c>
@@ -17074,7 +15506,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="15">
+    <row r="140" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>10</v>
       </c>
@@ -17203,7 +15635,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="15">
+    <row r="141" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>11</v>
       </c>
@@ -17332,7 +15764,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="15">
+    <row r="142" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>12</v>
       </c>
@@ -17461,7 +15893,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="15">
+    <row r="143" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>14</v>
       </c>
@@ -17590,7 +16022,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="15">
+    <row r="144" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>15</v>
       </c>
@@ -17719,7 +16151,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="145" spans="1:45" ht="15">
+    <row r="145" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>16</v>
       </c>
@@ -17848,7 +16280,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="146" spans="1:45" ht="15">
+    <row r="146" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>17</v>
       </c>
@@ -17977,7 +16409,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="147" spans="1:45" ht="15">
+    <row r="147" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>18</v>
       </c>
@@ -18106,7 +16538,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="148" spans="1:45" ht="15">
+    <row r="148" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
         <v>19</v>
       </c>
@@ -18236,7 +16668,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A81:L81"/>
     <mergeCell ref="A82:A83"/>
@@ -18244,11 +16681,10 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="C32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18257,12 +16693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18272,49 +16708,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="E2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="32" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="I2" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
@@ -18377,7 +16813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -18418,7 +16854,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -18458,7 +16894,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -18500,7 +16936,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -18544,7 +16980,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -18590,7 +17026,7 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -18638,7 +17074,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -18688,7 +17124,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -18740,7 +17176,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
@@ -18794,7 +17230,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -18850,7 +17286,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
@@ -18908,7 +17344,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
@@ -18968,7 +17404,7 @@
       </c>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -19030,7 +17466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -19050,7 +17486,7 @@
         <v>0.93954899999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -19070,7 +17506,7 @@
         <v>0.96705399999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
@@ -19090,7 +17526,7 @@
         <v>0.97558699999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -19110,7 +17546,7 @@
         <v>0.98612299999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -19130,7 +17566,7 @@
         <v>0.99057899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -19148,7 +17584,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19159,7 +17595,7 @@
         <v>0.84593300000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -19170,7 +17606,7 @@
         <v>0.879274</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -19181,7 +17617,7 @@
         <v>0.88897599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19192,7 +17628,7 @@
         <v>0.89172600000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -19203,7 +17639,7 @@
         <v>0.91529099999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -19214,7 +17650,7 @@
         <v>0.96248199999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -19225,7 +17661,7 @@
         <v>0.96375100000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
@@ -19236,7 +17672,7 @@
         <v>0.98280500000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -19247,7 +17683,7 @@
         <v>0.98638199999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>66</v>
       </c>
@@ -19269,12 +17705,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19283,44 +17719,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="4.5" customWidth="1"/>
     <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="1:17" ht="15">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" ht="15">
-      <c r="A22" s="33" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:17" ht="15">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -19342,17 +17778,17 @@
       <c r="G23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-    </row>
-    <row r="24" spans="1:17" ht="15">
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -19374,17 +17810,17 @@
       <c r="G24" s="4">
         <v>-2.6496599999999999E-2</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-    </row>
-    <row r="25" spans="1:17" ht="15">
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -19428,7 +17864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -19472,7 +17908,7 @@
         <v>-4.1218900000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -19516,7 +17952,7 @@
         <v>2.879E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -19560,7 +17996,7 @@
         <v>6.1544099999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -19604,7 +18040,7 @@
         <v>0.11642329999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -19648,7 +18084,7 @@
         <v>4.2377900000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
@@ -19692,7 +18128,7 @@
         <v>-4.0176000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -19736,7 +18172,7 @@
         <v>1.63891E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15">
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
@@ -19780,7 +18216,7 @@
         <v>1.1651699999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15">
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>80</v>
       </c>
@@ -19824,7 +18260,7 @@
         <v>3.1240999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15">
+    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -19868,7 +18304,7 @@
         <v>5.2595200000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15">
+    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>57</v>
       </c>
@@ -19912,7 +18348,7 @@
         <v>1.5837199999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15">
+    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>82</v>
       </c>
@@ -19956,7 +18392,7 @@
         <v>1.1022E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15">
+    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
@@ -20000,7 +18436,7 @@
         <v>1.7763999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15">
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>84</v>
       </c>
@@ -20044,7 +18480,7 @@
         <v>-2.9799999999999999E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15">
+    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -20088,7 +18524,7 @@
         <v>4.2023600000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15">
+    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
@@ -20132,7 +18568,7 @@
         <v>2.7103000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15">
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
@@ -20176,7 +18612,7 @@
         <v>2.7186999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15">
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
@@ -20220,7 +18656,7 @@
         <v>3.2220000000000003E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15">
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
@@ -20264,7 +18700,7 @@
         <v>1.7919999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15">
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
@@ -20308,7 +18744,7 @@
         <v>2.23036E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15">
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -20352,7 +18788,7 @@
         <v>7.8549999999999991E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15">
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
@@ -20396,7 +18832,7 @@
         <v>1.6446599999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15">
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -20440,7 +18876,7 @@
         <v>1.3086199999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15">
+    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>63</v>
       </c>
@@ -20484,7 +18920,7 @@
         <v>1.1293E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15">
+    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -20528,7 +18964,7 @@
         <v>3.3311500000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15">
+    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>64</v>
       </c>
@@ -20572,7 +19008,7 @@
         <v>-1.1450999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15">
+    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>85</v>
       </c>
@@ -20604,7 +19040,7 @@
         <v>1.17164E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15">
+    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>34</v>
       </c>
@@ -20648,7 +19084,7 @@
         <v>1.769E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15">
+    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>35</v>
       </c>
@@ -20680,7 +19116,7 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" ht="15">
+    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>36</v>
       </c>
@@ -20724,7 +19160,7 @@
         <v>2.1301400000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15">
+    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>42</v>
       </c>
@@ -20768,7 +19204,7 @@
         <v>3.2015700000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15">
+    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>43</v>
       </c>
@@ -20812,7 +19248,7 @@
         <v>2.2008E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15">
+    <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>44</v>
       </c>
@@ -20856,7 +19292,7 @@
         <v>6.1344900000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15">
+    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>45</v>
       </c>
@@ -20900,7 +19336,7 @@
         <v>7.3407799999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15">
+    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>46</v>
       </c>
@@ -20934,7 +19370,7 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" ht="15">
+    <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>86</v>
       </c>
@@ -20956,7 +19392,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" ht="15">
+    <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>2012</v>
       </c>
@@ -20992,7 +19428,7 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" ht="15">
+    <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>2013</v>
       </c>
@@ -21015,7 +19451,7 @@
         <v>2.3133500000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15">
+    <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>2014</v>
       </c>
@@ -21038,7 +19474,7 @@
         <v>1.89204E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15">
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>2015</v>
       </c>
@@ -21061,7 +19497,7 @@
         <v>5.7675499999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15">
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>87</v>
       </c>
@@ -21084,7 +19520,7 @@
         <v>8.4553290000000008</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15">
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -21097,7 +19533,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:10" ht="15">
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>93</v>
       </c>
@@ -21110,7 +19546,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="1:10" ht="15">
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>94</v>
       </c>
@@ -21123,12 +19559,12 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="71" spans="1:10" ht="15">
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -21136,7 +19572,7 @@
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -21144,42 +19580,42 @@
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
     </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="31" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-    </row>
-    <row r="85" spans="1:12" ht="15">
-      <c r="A85" s="33" t="s">
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A85" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
-      <c r="A86" s="36" t="s">
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A86" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>67</v>
       </c>
@@ -21207,7 +19643,7 @@
       <c r="K87" s="34"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>61</v>
       </c>
@@ -21237,7 +19673,7 @@
       </c>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -21253,7 +19689,7 @@
       <c r="E89" s="1">
         <v>0.47099999999999997</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="28">
         <v>-3.3344999999999998E-3</v>
       </c>
       <c r="G89" s="1">
@@ -21267,7 +19703,7 @@
       </c>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>56</v>
       </c>
@@ -21297,7 +19733,7 @@
       </c>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -21327,7 +19763,7 @@
       </c>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>54</v>
       </c>
@@ -21357,7 +19793,7 @@
       </c>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>48</v>
       </c>
@@ -21387,7 +19823,7 @@
       </c>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>59</v>
       </c>
@@ -21417,7 +19853,7 @@
       </c>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>51</v>
       </c>
@@ -21447,7 +19883,7 @@
       </c>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>62</v>
       </c>
@@ -21477,7 +19913,7 @@
       </c>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:13" ht="15">
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
@@ -21506,7 +19942,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15">
+    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
@@ -21535,7 +19971,7 @@
       <c r="L98" s="21"/>
       <c r="M98" s="21"/>
     </row>
-    <row r="99" spans="1:13" ht="15">
+    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>81</v>
       </c>
@@ -21564,7 +20000,7 @@
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
     </row>
-    <row r="100" spans="1:13" ht="15">
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>57</v>
       </c>
@@ -21589,7 +20025,7 @@
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
     </row>
-    <row r="101" spans="1:13" ht="15">
+    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>82</v>
       </c>
@@ -21618,7 +20054,7 @@
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
     </row>
-    <row r="102" spans="1:13" ht="15">
+    <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>83</v>
       </c>
@@ -21649,7 +20085,7 @@
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="1:13" ht="15">
+    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>84</v>
       </c>
@@ -21680,7 +20116,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="1:13" ht="15">
+    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
@@ -21709,7 +20145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15">
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>15</v>
       </c>
@@ -21738,7 +20174,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15">
+    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -21765,7 +20201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15">
+    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -21792,7 +20228,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15">
+    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -21815,11 +20251,11 @@
         <v>1.28066E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15">
+    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="37">
+      <c r="B109" s="28">
         <v>4.9591000000000001E-3</v>
       </c>
       <c r="C109" s="1">
@@ -21838,7 +20274,7 @@
         <v>1.6801799999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15">
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -21861,7 +20297,7 @@
         <v>9.6056000000000006E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15">
+    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -21884,7 +20320,7 @@
         <v>2.3254E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15">
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>65</v>
       </c>
@@ -21907,7 +20343,7 @@
         <v>1.1746599999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15">
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>63</v>
       </c>
@@ -21930,7 +20366,7 @@
         <v>1.9405599999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
@@ -21953,7 +20389,7 @@
         <v>8.6100000000000006E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15">
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>64</v>
       </c>
@@ -21976,7 +20412,7 @@
         <v>3.032E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15">
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>86</v>
       </c>
@@ -21987,7 +20423,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>2012</v>
       </c>
@@ -22010,7 +20446,7 @@
         <v>2.75777E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15">
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>2013</v>
       </c>
@@ -22033,7 +20469,7 @@
         <v>4.8179800000000002E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15">
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>2014</v>
       </c>
@@ -22056,7 +20492,7 @@
         <v>4.3171599999999997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15">
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>2015</v>
       </c>
@@ -22079,7 +20515,7 @@
         <v>8.4065100000000004E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>87</v>
       </c>
@@ -22102,7 +20538,7 @@
         <v>7.5767069999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>97</v>
       </c>
@@ -22115,7 +20551,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="15">
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>98</v>
       </c>
@@ -22128,7 +20564,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>

--- a/回归结果/水稻.xlsx
+++ b/回归结果/水稻.xlsx
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:BF148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3099,7 +3099,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="Q28" s="7">
         <v>3</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="7" t="s">
         <v>138</v>
       </c>
     </row>

--- a/回归结果/水稻.xlsx
+++ b/回归结果/水稻.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,11 @@
     <sheet name="各要素回归" sheetId="4" r:id="rId4"/>
     <sheet name="回归结果" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">回归结果!$A$21:$G$55</definedName>
   </definedNames>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="262">
   <si>
     <t>yield</t>
   </si>
@@ -1188,12 +1192,139 @@
     <t>单产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lnyield</t>
+    </r>
+  </si>
+  <si>
+    <t>(2)lnlabor</t>
+  </si>
+  <si>
+    <t>(3)lnfertile</t>
+  </si>
+  <si>
+    <t>(4)lnmachane</t>
+  </si>
+  <si>
+    <t>lnlaborlnfert</t>
+  </si>
+  <si>
+    <t>lnlaborlnmach</t>
+  </si>
+  <si>
+    <t>lnfertlnmach</t>
+  </si>
+  <si>
+    <t>lnmachlnot</t>
+  </si>
+  <si>
+    <r>
+      <t>N=9790</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n=3132</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.278***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.315***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.042***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.652***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.210***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;(&quot;0.000&quot;)&quot;"/>
@@ -1201,8 +1332,9 @@
     <numFmt numFmtId="180" formatCode="&quot;(&quot;General&quot;)&quot;"/>
     <numFmt numFmtId="181" formatCode="0.0_ "/>
     <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,6 +1398,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1281,7 +1447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1338,13 +1504,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1519,6 +1705,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1531,26 +1735,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7120,6 +7354,968 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>fertile</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$8:$R$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$8:$S$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4205396417223954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5885726846138004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6491885709323237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6576360748874783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6389286314720146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6056914800006585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5647713152435012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5200653043761501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.473863047684139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.427533817963603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3818999303809072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.337449293587641</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2944610426223444</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2530820966805591</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2133749843291739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1753483258634929</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1389765743436862</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1042129568928944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0709980308407201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0392653672401997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0089453278484495</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97996756321992229</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95226264577974618</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92576311432208647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90040411665205644</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87612377768442551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8528633804914475</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83056742080361057</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.80918357699701049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7886626248526396</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76895831750882337</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75002724482650351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7318286820264106</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71432443437917637</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69747868255133938</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68125783166721043</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.66563036605410286</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65056671086699103</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.63603910124660379</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62202145928731922</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60848927883146264</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.59541951793146353</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58279049870674648</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57058181425092325</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55877424220426142</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54734966458744305</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53629099348871867</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52558210220289814</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51520776143380898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50515358018934164</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49540595101825585</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48595199925926541</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.47677953599463935</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46787701442207802</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.45923348937951586</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45083857977746994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.44268243371250587</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.43475569605316994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.42704947830633477</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.41955533058736338</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.41226521553176743</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.40517148399924102</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.39826685243309728</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.39154438174931511</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.38499745763965554</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37861977218271159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37240530666539046</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.36634831552521163</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36044331133103469</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35468505072645656</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.34906852126616422</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.34358892908107702</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.33824168731318788</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.33302240526565141</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32792687821792477</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.32295107785966681</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.31809114330065852</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.31334337261729228</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.30870421489917532</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.30417026276214149</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.29973824529649534</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.2954050214216376</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.29116757362034384</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.28702300202793818</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.28296851885340396</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.27900144311112351</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.27511919564348669</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.27131929441599306</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.26759935006778834</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.26395706170176531</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.26039021289945552</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.25689666794698174</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.25347436825925274</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.25012132899048289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.24683563581990062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.24361544190227261</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.24045896497355265</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.23736448460260559</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.23433033958055019</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.23135492543982053</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.2284366920955398</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.22557414160229838</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.22276582601984998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.22001034538164993</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.2173063457605586</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.21465251742636071</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.21204759309010426</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.20949034623055821</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.20697958949837311</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.20451417319380719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5565-4BF2-AC4E-204982DB67D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413395232"/>
+        <c:axId val="413396544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413395232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413396544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413396544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413395232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7161,6 +8357,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8232,6 +9468,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -8582,6 +10334,1063 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469789</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469789</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2762250"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463693</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>145781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5543550"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="统计性描述"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="方差检验"/>
+      <sheetName val="vif"/>
+      <sheetName val="各要素回归"/>
+      <sheetName val="回归结果"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="10">
+          <cell r="O10">
+            <v>1</v>
+          </cell>
+          <cell r="P10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="O11">
+            <v>2</v>
+          </cell>
+          <cell r="P11">
+            <v>1.3968834764909366</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="O12">
+            <v>3</v>
+          </cell>
+          <cell r="P12">
+            <v>1.5496067584084541</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="O13">
+            <v>4</v>
+          </cell>
+          <cell r="P13">
+            <v>1.600859531567592</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="O14">
+            <v>5</v>
+          </cell>
+          <cell r="P14">
+            <v>1.603676609530535</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="O15">
+            <v>6</v>
+          </cell>
+          <cell r="P15">
+            <v>1.5817105012466457</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="O16">
+            <v>7</v>
+          </cell>
+          <cell r="P16">
+            <v>1.5467580868046644</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="O17">
+            <v>8</v>
+          </cell>
+          <cell r="P17">
+            <v>1.5051477644582505</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="O18">
+            <v>9</v>
+          </cell>
+          <cell r="P18">
+            <v>1.4604424198708865</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="O19">
+            <v>10</v>
+          </cell>
+          <cell r="P19">
+            <v>1.4147101545832477</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="O20">
+            <v>11</v>
+          </cell>
+          <cell r="P20">
+            <v>1.3691700963515834</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="O21">
+            <v>12</v>
+          </cell>
+          <cell r="P21">
+            <v>1.3245408593445287</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="O22">
+            <v>13</v>
+          </cell>
+          <cell r="P22">
+            <v>1.2812376385626492</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="O23">
+            <v>14</v>
+          </cell>
+          <cell r="P23">
+            <v>1.2394879758959587</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="O24">
+            <v>15</v>
+          </cell>
+          <cell r="P24">
+            <v>1.1994018593695241</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="O25">
+            <v>16</v>
+          </cell>
+          <cell r="P25">
+            <v>1.1610152263939271</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="O26">
+            <v>17</v>
+          </cell>
+          <cell r="P26">
+            <v>1.1243174971181837</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="O27">
+            <v>18</v>
+          </cell>
+          <cell r="P27">
+            <v>1.0892692684668752</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="O28">
+            <v>19</v>
+          </cell>
+          <cell r="P28">
+            <v>1.0558138128604408</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="O29">
+            <v>20</v>
+          </cell>
+          <cell r="P29">
+            <v>1.0238846040193119</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="O30">
+            <v>21</v>
+          </cell>
+          <cell r="P30">
+            <v>0.99341025579825548</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="O31">
+            <v>22</v>
+          </cell>
+          <cell r="P31">
+            <v>0.96431775527094765</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="O32">
+            <v>23</v>
+          </cell>
+          <cell r="P32">
+            <v>0.93653455988504564</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="O33">
+            <v>24</v>
+          </cell>
+          <cell r="P33">
+            <v>0.90998993257037208</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="O34">
+            <v>25</v>
+          </cell>
+          <cell r="P34">
+            <v>0.88461576322664348</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="O35">
+            <v>26</v>
+          </cell>
+          <cell r="P35">
+            <v>0.86034704343508517</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="O36">
+            <v>27</v>
+          </cell>
+          <cell r="P36">
+            <v>0.83712210745191051</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="O37">
+            <v>28</v>
+          </cell>
+          <cell r="P37">
+            <v>0.81488271664589795</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="O38">
+            <v>29</v>
+          </cell>
+          <cell r="P38">
+            <v>0.793574040327653</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="O39">
+            <v>30</v>
+          </cell>
+          <cell r="P39">
+            <v>0.77314456942916032</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="O40">
+            <v>31</v>
+          </cell>
+          <cell r="P40">
+            <v>0.75354598817281282</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="O41">
+            <v>32</v>
+          </cell>
+          <cell r="P41">
+            <v>0.7347330210452071</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="O42">
+            <v>33</v>
+          </cell>
+          <cell r="P42">
+            <v>0.71666326695303162</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="O43">
+            <v>34</v>
+          </cell>
+          <cell r="P43">
+            <v>0.69929702864267995</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="O44">
+            <v>35</v>
+          </cell>
+          <cell r="P44">
+            <v>0.68259714280831196</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="O45">
+            <v>36</v>
+          </cell>
+          <cell r="P45">
+            <v>0.66652881445097045</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="O46">
+            <v>37</v>
+          </cell>
+          <cell r="P46">
+            <v>0.65105945774699558</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="O47">
+            <v>38</v>
+          </cell>
+          <cell r="P47">
+            <v>0.63615854477280454</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="O48">
+            <v>39</v>
+          </cell>
+          <cell r="P48">
+            <v>0.62179746280009962</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="O49">
+            <v>40</v>
+          </cell>
+          <cell r="P49">
+            <v>0.60794938043982649</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="O50">
+            <v>41</v>
+          </cell>
+          <cell r="P50">
+            <v>0.59458912261754537</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="O51">
+            <v>42</v>
+          </cell>
+          <cell r="P51">
+            <v>0.5816930541666363</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="O52">
+            <v>43</v>
+          </cell>
+          <cell r="P52">
+            <v>0.56923897170002991</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="O53">
+            <v>44</v>
+          </cell>
+          <cell r="P53">
+            <v>0.55720600334514081</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="O54">
+            <v>45</v>
+          </cell>
+          <cell r="P54">
+            <v>0.54557451588560424</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="O55">
+            <v>46</v>
+          </cell>
+          <cell r="P55">
+            <v>0.53432602883656144</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="O56">
+            <v>47</v>
+          </cell>
+          <cell r="P56">
+            <v>0.52344313497999628</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="O57">
+            <v>48</v>
+          </cell>
+          <cell r="P57">
+            <v>0.51290942689749031</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="O58">
+            <v>49</v>
+          </cell>
+          <cell r="P58">
+            <v>0.50270942905580862</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="O59">
+            <v>50</v>
+          </cell>
+          <cell r="P59">
+            <v>0.49282853502318125</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="O60">
+            <v>51</v>
+          </cell>
+          <cell r="P60">
+            <v>0.48325294941901381</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="O61">
+            <v>52</v>
+          </cell>
+          <cell r="P61">
+            <v>0.4739696342256664</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="O62">
+            <v>53</v>
+          </cell>
+          <cell r="P62">
+            <v>0.46496625911693867</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="O63">
+            <v>54</v>
+          </cell>
+          <cell r="P63">
+            <v>0.45623115548333615</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="O64">
+            <v>55</v>
+          </cell>
+          <cell r="P64">
+            <v>0.4477532738586581</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="O65">
+            <v>56</v>
+          </cell>
+          <cell r="P65">
+            <v>0.43952214447568078</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="O66">
+            <v>57</v>
+          </cell>
+          <cell r="P66">
+            <v>0.43152784070055189</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="O67">
+            <v>58</v>
+          </cell>
+          <cell r="P67">
+            <v>0.42376094511592816</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="O68">
+            <v>59</v>
+          </cell>
+          <cell r="P68">
+            <v>0.41621251804183312</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="O69">
+            <v>60</v>
+          </cell>
+          <cell r="P69">
+            <v>0.40887406830073897</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="O70">
+            <v>61</v>
+          </cell>
+          <cell r="P70">
+            <v>0.40173752604953161</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="O71">
+            <v>62</v>
+          </cell>
+          <cell r="P71">
+            <v>0.39479521751587082</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="O72">
+            <v>63</v>
+          </cell>
+          <cell r="P72">
+            <v>0.38803984149007165</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="O73">
+            <v>64</v>
+          </cell>
+          <cell r="P73">
+            <v>0.38146444743612673</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="O74">
+            <v>65</v>
+          </cell>
+          <cell r="P74">
+            <v>0.37506241509689697</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="O75">
+            <v>66</v>
+          </cell>
+          <cell r="P75">
+            <v>0.36882743547894636</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="O76">
+            <v>67</v>
+          </cell>
+          <cell r="P76">
+            <v>0.36275349311201455</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="O77">
+            <v>68</v>
+          </cell>
+          <cell r="P77">
+            <v>0.35683484948685545</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="O78">
+            <v>69</v>
+          </cell>
+          <cell r="P78">
+            <v>0.35106602758309358</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="O79">
+            <v>70</v>
+          </cell>
+          <cell r="P79">
+            <v>0.34544179740602382</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="O80">
+            <v>71</v>
+          </cell>
+          <cell r="P80">
+            <v>0.33995716245789986</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="O81">
+            <v>72</v>
+          </cell>
+          <cell r="P81">
+            <v>0.3346073470752986</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="O82">
+            <v>73</v>
+          </cell>
+          <cell r="P82">
+            <v>0.32938778456968332</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="O83">
+            <v>74</v>
+          </cell>
+          <cell r="P83">
+            <v>0.32429410611331821</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="O84">
+            <v>75</v>
+          </cell>
+          <cell r="P84">
+            <v>0.31932213031730999</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="O85">
+            <v>76</v>
+          </cell>
+          <cell r="P85">
+            <v>0.3144678534527463</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="O86">
+            <v>77</v>
+          </cell>
+          <cell r="P86">
+            <v>0.30972744026977911</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="O87">
+            <v>78</v>
+          </cell>
+          <cell r="P87">
+            <v>0.30509721537299461</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="O88">
+            <v>79</v>
+          </cell>
+          <cell r="P88">
+            <v>0.30057365511466161</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="O89">
+            <v>80</v>
+          </cell>
+          <cell r="P89">
+            <v>0.29615337997039182</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="O90">
+            <v>81</v>
+          </cell>
+          <cell r="P90">
+            <v>0.29183314736445243</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="O91">
+            <v>82</v>
+          </cell>
+          <cell r="P91">
+            <v>0.28760984491445407</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="O92">
+            <v>83</v>
+          </cell>
+          <cell r="P92">
+            <v>0.28348048406741422</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="O93">
+            <v>84</v>
+          </cell>
+          <cell r="P93">
+            <v>0.27944219410128113</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="O94">
+            <v>85</v>
+          </cell>
+          <cell r="P94">
+            <v>0.27549221646791994</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="O95">
+            <v>86</v>
+          </cell>
+          <cell r="P95">
+            <v>0.27162789945533827</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="O96">
+            <v>87</v>
+          </cell>
+          <cell r="P96">
+            <v>0.26784669314852061</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="O97">
+            <v>88</v>
+          </cell>
+          <cell r="P97">
+            <v>0.26414614466976855</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="O98">
+            <v>89</v>
+          </cell>
+          <cell r="P98">
+            <v>0.26052389368077844</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="O99">
+            <v>90</v>
+          </cell>
+          <cell r="P99">
+            <v>0.25697766812998213</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="O100">
+            <v>91</v>
+          </cell>
+          <cell r="P100">
+            <v>0.25350528022982383</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="O101">
+            <v>92</v>
+          </cell>
+          <cell r="P101">
+            <v>0.25010462264972105</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="O102">
+            <v>93</v>
+          </cell>
+          <cell r="P102">
+            <v>0.24677366491146174</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="O103">
+            <v>94</v>
+          </cell>
+          <cell r="P103">
+            <v>0.24351044997468327</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="O104">
+            <v>95</v>
+          </cell>
+          <cell r="P104">
+            <v>0.24031309100094819</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="O105">
+            <v>96</v>
+          </cell>
+          <cell r="P105">
+            <v>0.23717976828569154</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="O106">
+            <v>97</v>
+          </cell>
+          <cell r="P106">
+            <v>0.23410872634805241</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="O107">
+            <v>98</v>
+          </cell>
+          <cell r="P107">
+            <v>0.23109827116926382</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="O108">
+            <v>99</v>
+          </cell>
+          <cell r="P108">
+            <v>0.22814676757089572</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="O109">
+            <v>100</v>
+          </cell>
+          <cell r="P109">
+            <v>0.22525263672481832</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="O110">
+            <v>101</v>
+          </cell>
+          <cell r="P110">
+            <v>0.22241435378729466</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="O111">
+            <v>102</v>
+          </cell>
+          <cell r="P111">
+            <v>0.21963044565008386</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="O112">
+            <v>103</v>
+          </cell>
+          <cell r="P112">
+            <v>0.21689948880191826</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="O113">
+            <v>104</v>
+          </cell>
+          <cell r="P113">
+            <v>0.21422010729412905</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="O114">
+            <v>105</v>
+          </cell>
+          <cell r="P114">
+            <v>0.21159097080458905</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="O115">
+            <v>106</v>
+          </cell>
+          <cell r="P115">
+            <v>0.20901079279451917</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="O116">
+            <v>107</v>
+          </cell>
+          <cell r="P116">
+            <v>0.20647832875303412</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="O117">
+            <v>108</v>
+          </cell>
+          <cell r="P117">
+            <v>0.20399237452463079</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="O118">
+            <v>109</v>
+          </cell>
+          <cell r="P118">
+            <v>0.20155176471511591</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="O119">
+            <v>110</v>
+          </cell>
+          <cell r="P119">
+            <v>0.19915537117173715</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26047,11 +28856,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A81:L81"/>
     <mergeCell ref="A82:A83"/>
@@ -26063,6 +28867,11 @@
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28133,8 +30942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:Y112"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:B101"/>
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T111" sqref="T111:Y111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28145,7 +30954,7 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="66" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="52"/>
@@ -28156,15 +30965,15 @@
       <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -28223,15 +31032,15 @@
         <f>F24&amp;E24</f>
         <v>-0.039***</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="K24" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -29731,27 +32540,27 @@
       <c r="G70" s="55"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -29903,18 +32712,18 @@
       <c r="S78" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="T78" s="62" t="s">
+      <c r="T78" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="U78" s="62"/>
-      <c r="V78" s="62" t="s">
+      <c r="U78" s="63"/>
+      <c r="V78" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="W78" s="62"/>
-      <c r="X78" s="62" t="s">
+      <c r="W78" s="63"/>
+      <c r="X78" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="Y78" s="62"/>
+      <c r="Y78" s="63"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -30080,10 +32889,10 @@
         <f t="shared" si="5"/>
         <v>0.001**</v>
       </c>
-      <c r="J82" s="58" t="s">
+      <c r="J82" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="K82" s="58"/>
+      <c r="K82" s="64"/>
       <c r="L82" s="2"/>
       <c r="S82" s="47" t="s">
         <v>52</v>
@@ -30812,10 +33621,10 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">0 </v>
       </c>
-      <c r="J96" s="58" t="s">
+      <c r="J96" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="K96" s="58"/>
+      <c r="K96" s="64"/>
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
       <c r="S96" s="47" t="s">
@@ -31359,18 +34168,18 @@
       <c r="S108" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="T108" s="63" t="s">
+      <c r="T108" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="U108" s="63"/>
-      <c r="V108" s="63" t="s">
+      <c r="U108" s="62"/>
+      <c r="V108" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="W108" s="63"/>
-      <c r="X108" s="63" t="s">
+      <c r="W108" s="62"/>
+      <c r="X108" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="Y108" s="63"/>
+      <c r="Y108" s="62"/>
     </row>
     <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -31387,18 +34196,18 @@
       <c r="S109" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="T109" s="67" t="s">
+      <c r="T109" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="U109" s="67"/>
-      <c r="V109" s="63" t="s">
+      <c r="U109" s="61"/>
+      <c r="V109" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="W109" s="63"/>
-      <c r="X109" s="63" t="s">
+      <c r="W109" s="62"/>
+      <c r="X109" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="Y109" s="63"/>
+      <c r="Y109" s="62"/>
     </row>
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -31417,51 +34226,66 @@
       <c r="S110" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="T110" s="63" t="s">
+      <c r="T110" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="U110" s="63"/>
-      <c r="V110" s="63" t="s">
+      <c r="U110" s="62"/>
+      <c r="V110" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="W110" s="63"/>
-      <c r="X110" s="63" t="s">
+      <c r="W110" s="62"/>
+      <c r="X110" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="Y110" s="63"/>
+      <c r="Y110" s="62"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="S111" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="T111" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="U111" s="64"/>
-      <c r="V111" s="64"/>
-      <c r="W111" s="64"/>
-      <c r="X111" s="64"/>
-      <c r="Y111" s="64"/>
+      <c r="T111" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="U111" s="58"/>
+      <c r="V111" s="58"/>
+      <c r="W111" s="58"/>
+      <c r="X111" s="58"/>
+      <c r="Y111" s="58"/>
     </row>
     <row r="112" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="S112" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="65">
+      <c r="T112" s="59">
         <v>0.33750000000000002</v>
       </c>
-      <c r="U112" s="65"/>
-      <c r="V112" s="66" t="s">
+      <c r="U112" s="59"/>
+      <c r="V112" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="W112" s="66"/>
-      <c r="X112" s="66" t="s">
+      <c r="W112" s="60"/>
+      <c r="X112" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="Y112" s="66"/>
+      <c r="Y112" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="T108:U108"/>
+    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="X108:Y108"/>
     <mergeCell ref="T111:Y111"/>
     <mergeCell ref="T112:U112"/>
     <mergeCell ref="V112:W112"/>
@@ -31472,21 +34296,6 @@
     <mergeCell ref="T110:U110"/>
     <mergeCell ref="V110:W110"/>
     <mergeCell ref="X110:Y110"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="T108:U108"/>
-    <mergeCell ref="V108:W108"/>
-    <mergeCell ref="X108:Y108"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A70:G70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31499,7 +34308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CX238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CA3" sqref="CA3:CX8"/>
     </sheetView>
   </sheetViews>
@@ -31855,7 +34664,7 @@
         <v>6.2040550099471412</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BQ5" si="3">LN(AJ3)</f>
+        <f t="shared" ref="BH3:BJ5" si="3">LN(AJ3)</f>
         <v>6.2044391696782455</v>
       </c>
       <c r="BI3">
@@ -33218,7 +36027,7 @@
         <v>5.1506986403200727</v>
       </c>
       <c r="BH8">
-        <f t="shared" ref="BH8:BQ10" si="14">LN(AJ8)</f>
+        <f t="shared" ref="BH8:BJ10" si="14">LN(AJ8)</f>
         <v>5.1677233698346354</v>
       </c>
       <c r="BI8">
@@ -37126,18 +39935,18 @@
       <c r="A32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="63"/>
+      <c r="G32" s="62"/>
       <c r="J32" s="4">
         <v>2013</v>
       </c>
@@ -37238,18 +40047,18 @@
       <c r="A33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="63" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="63"/>
+      <c r="G33" s="62"/>
       <c r="J33" s="4">
         <v>2014</v>
       </c>
@@ -37350,18 +40159,18 @@
       <c r="A34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63" t="s">
+      <c r="C34" s="62"/>
+      <c r="D34" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="63"/>
+      <c r="G34" s="62"/>
       <c r="J34" s="4">
         <v>2015</v>
       </c>
@@ -37462,12 +40271,12 @@
       <c r="A35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="13"/>
       <c r="J35" s="4" t="s">
         <v>86</v>
@@ -37569,8 +40378,8 @@
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
@@ -45047,7 +47856,7 @@
         <v>186</v>
       </c>
       <c r="BW197">
-        <f t="shared" ref="BW197:BW260" si="33">EXP($K$3*LN($BV197)+BV197*$K$4+$O$37)</f>
+        <f t="shared" ref="BW197:BW214" si="33">EXP($K$3*LN($BV197)+BV197*$K$4+$O$37)</f>
         <v>405.57366563864002</v>
       </c>
       <c r="BX197" s="39">
@@ -46337,6 +49146,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -46345,12 +49160,1531 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F7:S118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="6:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="6:19" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f>EXP(0.652*LN(R8)-0.21*(LN(R8))^2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F9" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="51">
+        <v>9.3671999999999991E-3</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" s="75">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M9" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="N9" s="73">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9:S72" si="0">EXP(0.652*LN(R9)-0.21*(LN(R9))^2)</f>
+        <v>1.4205396417223954</v>
+      </c>
+    </row>
+    <row r="10" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F10" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38">
+        <v>-1E-3</v>
+      </c>
+      <c r="H10" s="51">
+        <v>1.2432000000000001E-3</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1.5885726846138004</v>
+      </c>
+    </row>
+    <row r="11" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F11" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="77">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" s="79">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M11" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="N11" s="77">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1.6491885709323237</v>
+      </c>
+    </row>
+    <row r="12" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="51">
+        <v>6.9480500000000001E-2</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1.6576360748874783</v>
+      </c>
+    </row>
+    <row r="13" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="51">
+        <v>8.9409500000000003E-2</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>1.6389286314720146</v>
+      </c>
+    </row>
+    <row r="14" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F14" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="51">
+        <v>1.06905E-2</v>
+      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>1.6056914800006585</v>
+      </c>
+    </row>
+    <row r="15" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F15" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0.1415739</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>1.5647713152435012</v>
+      </c>
+    </row>
+    <row r="16" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F16" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="51">
+        <v>5.4298999999999997E-3</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>1.5200653043761501</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F17" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="51">
+        <v>8.3345999999999993E-3</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="82"/>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>1.473863047684139</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F18" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="51">
+        <v>3.456E-4</v>
+      </c>
+      <c r="I18" s="71"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="82"/>
+      <c r="R18">
+        <v>11</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>1.427533817963603</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F19" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="51">
+        <v>1.3462E-2</v>
+      </c>
+      <c r="I19" s="71"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="82"/>
+      <c r="R19">
+        <v>12</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1.3818999303809072</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F20" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="51">
+        <v>9.8183999999999997E-3</v>
+      </c>
+      <c r="I20" s="71"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="82"/>
+      <c r="R20">
+        <v>13</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>1.337449293587641</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F21" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="51">
+        <v>1.701E-3</v>
+      </c>
+      <c r="I21" s="71"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="82"/>
+      <c r="R21">
+        <v>14</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>1.2944610426223444</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F22" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="51">
+        <v>1.06131E-2</v>
+      </c>
+      <c r="I22" s="71"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="82"/>
+      <c r="R22">
+        <v>15</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>1.2530820966805591</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F23" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="51">
+        <v>1.3545E-3</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="82"/>
+      <c r="R23">
+        <v>16</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>1.2133749843291739</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F24" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="51">
+        <v>1.2107700000000001E-2</v>
+      </c>
+      <c r="I24" s="71"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="82"/>
+      <c r="R24">
+        <v>17</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>1.1753483258634929</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F25" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="51">
+        <v>1.6972999999999999E-3</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="82"/>
+      <c r="R25">
+        <v>18</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>1.1389765743436862</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F26" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="51">
+        <v>1.0437699999999999E-2</v>
+      </c>
+      <c r="I26" s="71"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
+      <c r="R26">
+        <v>19</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>1.1042129568928944</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F27" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="51">
+        <v>3.1500000000000001E-4</v>
+      </c>
+      <c r="I27" s="71"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
+      <c r="R27">
+        <v>20</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>1.0709980308407201</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F28" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="51">
+        <v>1.1716000000000001E-3</v>
+      </c>
+      <c r="I28" s="71"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
+      <c r="R28">
+        <v>21</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>1.0392653672401997</v>
+      </c>
+    </row>
+    <row r="29" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F29" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="51">
+        <v>1.0641400000000001E-2</v>
+      </c>
+      <c r="I29" s="71"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="82"/>
+      <c r="R29">
+        <v>22</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>1.0089453278484495</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F30" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="51">
+        <v>3.5324000000000002E-3</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="82"/>
+      <c r="R30">
+        <v>23</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0.97996756321992229</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F31" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="51">
+        <v>6.0400000000000002E-3</v>
+      </c>
+      <c r="I31" s="71"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="82"/>
+      <c r="R31">
+        <v>24</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>0.95226264577974618</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F32" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="51">
+        <v>4.9725999999999998E-3</v>
+      </c>
+      <c r="I32" s="71"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="82"/>
+      <c r="R32">
+        <v>25</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>0.92576311432208647</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F33" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="51">
+        <v>8.2640000000000003E-4</v>
+      </c>
+      <c r="I33" s="71"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="82"/>
+      <c r="R33">
+        <v>26</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>0.90040411665205644</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F34" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="51">
+        <v>6.6414999999999998E-3</v>
+      </c>
+      <c r="I34" s="71"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="82"/>
+      <c r="R34">
+        <v>27</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>0.87612377768442551</v>
+      </c>
+    </row>
+    <row r="35" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F35" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="51">
+        <v>9.5768999999999993E-3</v>
+      </c>
+      <c r="I35" s="71"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="82"/>
+      <c r="R35">
+        <v>28</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>0.8528633804914475</v>
+      </c>
+    </row>
+    <row r="36" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F36" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="51">
+        <v>1.22644E-2</v>
+      </c>
+      <c r="I36" s="71"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="82"/>
+      <c r="R36">
+        <v>29</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>0.83056742080361057</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F37" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="51">
+        <v>9.4410000000000002E-4</v>
+      </c>
+      <c r="I37" s="71"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="82"/>
+      <c r="R37">
+        <v>30</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>0.80918357699701049</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="F38" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="51">
+        <v>0.41595779999999999</v>
+      </c>
+      <c r="I38" s="71"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="82"/>
+      <c r="R38">
+        <v>31</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>0.7886626248526396</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="F39" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="R39">
+        <v>32</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>0.76895831750882337</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R40">
+        <v>33</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>0.75002724482650351</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R41">
+        <v>34</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>0.7318286820264106</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R42">
+        <v>35</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>0.71432443437917637</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R43">
+        <v>36</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>0.69747868255133938</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R44">
+        <v>37</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>0.68125783166721043</v>
+      </c>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R45">
+        <v>38</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>0.66563036605410286</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R46">
+        <v>39</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>0.65056671086699103</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R47">
+        <v>40</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>0.63603910124660379</v>
+      </c>
+    </row>
+    <row r="48" spans="6:19" x14ac:dyDescent="0.15">
+      <c r="R48">
+        <v>41</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>0.62202145928731922</v>
+      </c>
+    </row>
+    <row r="49" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R49">
+        <v>42</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>0.60848927883146264</v>
+      </c>
+    </row>
+    <row r="50" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R50">
+        <v>43</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>0.59541951793146353</v>
+      </c>
+    </row>
+    <row r="51" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R51">
+        <v>44</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>0.58279049870674648</v>
+      </c>
+    </row>
+    <row r="52" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R52">
+        <v>45</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>0.57058181425092325</v>
+      </c>
+    </row>
+    <row r="53" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R53">
+        <v>46</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>0.55877424220426142</v>
+      </c>
+    </row>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R54">
+        <v>47</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>0.54734966458744305</v>
+      </c>
+    </row>
+    <row r="55" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R55">
+        <v>48</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>0.53629099348871867</v>
+      </c>
+    </row>
+    <row r="56" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R56">
+        <v>49</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>0.52558210220289814</v>
+      </c>
+    </row>
+    <row r="57" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R57">
+        <v>50</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>0.51520776143380898</v>
+      </c>
+    </row>
+    <row r="58" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R58">
+        <v>51</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>0.50515358018934164</v>
+      </c>
+    </row>
+    <row r="59" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R59">
+        <v>52</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>0.49540595101825585</v>
+      </c>
+    </row>
+    <row r="60" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R60">
+        <v>53</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>0.48595199925926541</v>
+      </c>
+    </row>
+    <row r="61" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R61">
+        <v>54</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>0.47677953599463935</v>
+      </c>
+    </row>
+    <row r="62" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R62">
+        <v>55</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>0.46787701442207802</v>
+      </c>
+    </row>
+    <row r="63" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R63">
+        <v>56</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>0.45923348937951586</v>
+      </c>
+    </row>
+    <row r="64" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R64">
+        <v>57</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>0.45083857977746994</v>
+      </c>
+    </row>
+    <row r="65" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R65">
+        <v>58</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>0.44268243371250587</v>
+      </c>
+    </row>
+    <row r="66" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R66">
+        <v>59</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>0.43475569605316994</v>
+      </c>
+    </row>
+    <row r="67" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R67">
+        <v>60</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="0"/>
+        <v>0.42704947830633477</v>
+      </c>
+    </row>
+    <row r="68" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R68">
+        <v>61</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="0"/>
+        <v>0.41955533058736338</v>
+      </c>
+    </row>
+    <row r="69" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R69">
+        <v>62</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="0"/>
+        <v>0.41226521553176743</v>
+      </c>
+    </row>
+    <row r="70" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R70">
+        <v>63</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="0"/>
+        <v>0.40517148399924102</v>
+      </c>
+    </row>
+    <row r="71" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R71">
+        <v>64</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="0"/>
+        <v>0.39826685243309728</v>
+      </c>
+    </row>
+    <row r="72" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R72">
+        <v>65</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="0"/>
+        <v>0.39154438174931511</v>
+      </c>
+    </row>
+    <row r="73" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R73">
+        <v>66</v>
+      </c>
+      <c r="S73">
+        <f t="shared" ref="S73:S118" si="1">EXP(0.652*LN(R73)-0.21*(LN(R73))^2)</f>
+        <v>0.38499745763965554</v>
+      </c>
+    </row>
+    <row r="74" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R74">
+        <v>67</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="1"/>
+        <v>0.37861977218271159</v>
+      </c>
+    </row>
+    <row r="75" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R75">
+        <v>68</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="1"/>
+        <v>0.37240530666539046</v>
+      </c>
+    </row>
+    <row r="76" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R76">
+        <v>69</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="1"/>
+        <v>0.36634831552521163</v>
+      </c>
+    </row>
+    <row r="77" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R77">
+        <v>70</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="1"/>
+        <v>0.36044331133103469</v>
+      </c>
+    </row>
+    <row r="78" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R78">
+        <v>71</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="1"/>
+        <v>0.35468505072645656</v>
+      </c>
+    </row>
+    <row r="79" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R79">
+        <v>72</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="1"/>
+        <v>0.34906852126616422</v>
+      </c>
+    </row>
+    <row r="80" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R80">
+        <v>73</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="1"/>
+        <v>0.34358892908107702</v>
+      </c>
+    </row>
+    <row r="81" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R81">
+        <v>74</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="1"/>
+        <v>0.33824168731318788</v>
+      </c>
+    </row>
+    <row r="82" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R82">
+        <v>75</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="1"/>
+        <v>0.33302240526565141</v>
+      </c>
+    </row>
+    <row r="83" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R83">
+        <v>76</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="1"/>
+        <v>0.32792687821792477</v>
+      </c>
+    </row>
+    <row r="84" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R84">
+        <v>77</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="1"/>
+        <v>0.32295107785966681</v>
+      </c>
+    </row>
+    <row r="85" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R85">
+        <v>78</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="1"/>
+        <v>0.31809114330065852</v>
+      </c>
+    </row>
+    <row r="86" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R86">
+        <v>79</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="1"/>
+        <v>0.31334337261729228</v>
+      </c>
+    </row>
+    <row r="87" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R87">
+        <v>80</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="1"/>
+        <v>0.30870421489917532</v>
+      </c>
+    </row>
+    <row r="88" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R88">
+        <v>81</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="1"/>
+        <v>0.30417026276214149</v>
+      </c>
+    </row>
+    <row r="89" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R89">
+        <v>82</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="1"/>
+        <v>0.29973824529649534</v>
+      </c>
+    </row>
+    <row r="90" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R90">
+        <v>83</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="1"/>
+        <v>0.2954050214216376</v>
+      </c>
+    </row>
+    <row r="91" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R91">
+        <v>84</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="1"/>
+        <v>0.29116757362034384</v>
+      </c>
+    </row>
+    <row r="92" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R92">
+        <v>85</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="1"/>
+        <v>0.28702300202793818</v>
+      </c>
+    </row>
+    <row r="93" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R93">
+        <v>86</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="1"/>
+        <v>0.28296851885340396</v>
+      </c>
+    </row>
+    <row r="94" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R94">
+        <v>87</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="1"/>
+        <v>0.27900144311112351</v>
+      </c>
+    </row>
+    <row r="95" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R95">
+        <v>88</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="1"/>
+        <v>0.27511919564348669</v>
+      </c>
+    </row>
+    <row r="96" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R96">
+        <v>89</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="1"/>
+        <v>0.27131929441599306</v>
+      </c>
+    </row>
+    <row r="97" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R97">
+        <v>90</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="1"/>
+        <v>0.26759935006778834</v>
+      </c>
+    </row>
+    <row r="98" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R98">
+        <v>91</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="1"/>
+        <v>0.26395706170176531</v>
+      </c>
+    </row>
+    <row r="99" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R99">
+        <v>92</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="1"/>
+        <v>0.26039021289945552</v>
+      </c>
+    </row>
+    <row r="100" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R100">
+        <v>93</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="1"/>
+        <v>0.25689666794698174</v>
+      </c>
+    </row>
+    <row r="101" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R101">
+        <v>94</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="1"/>
+        <v>0.25347436825925274</v>
+      </c>
+    </row>
+    <row r="102" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R102">
+        <v>95</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="1"/>
+        <v>0.25012132899048289</v>
+      </c>
+    </row>
+    <row r="103" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R103">
+        <v>96</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="1"/>
+        <v>0.24683563581990062</v>
+      </c>
+    </row>
+    <row r="104" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R104">
+        <v>97</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="1"/>
+        <v>0.24361544190227261</v>
+      </c>
+    </row>
+    <row r="105" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R105">
+        <v>98</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="1"/>
+        <v>0.24045896497355265</v>
+      </c>
+    </row>
+    <row r="106" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R106">
+        <v>99</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="1"/>
+        <v>0.23736448460260559</v>
+      </c>
+    </row>
+    <row r="107" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R107">
+        <v>100</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="1"/>
+        <v>0.23433033958055019</v>
+      </c>
+    </row>
+    <row r="108" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R108">
+        <v>101</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="1"/>
+        <v>0.23135492543982053</v>
+      </c>
+    </row>
+    <row r="109" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R109">
+        <v>102</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="1"/>
+        <v>0.2284366920955398</v>
+      </c>
+    </row>
+    <row r="110" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R110">
+        <v>103</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="1"/>
+        <v>0.22557414160229838</v>
+      </c>
+    </row>
+    <row r="111" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R111">
+        <v>104</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="1"/>
+        <v>0.22276582601984998</v>
+      </c>
+    </row>
+    <row r="112" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R112">
+        <v>105</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="1"/>
+        <v>0.22001034538164993</v>
+      </c>
+    </row>
+    <row r="113" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R113">
+        <v>106</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="1"/>
+        <v>0.2173063457605586</v>
+      </c>
+    </row>
+    <row r="114" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R114">
+        <v>107</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="1"/>
+        <v>0.21465251742636071</v>
+      </c>
+    </row>
+    <row r="115" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R115">
+        <v>108</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="1"/>
+        <v>0.21204759309010426</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R116">
+        <v>109</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="1"/>
+        <v>0.20949034623055821</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R117">
+        <v>110</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="1"/>
+        <v>0.20697958949837311</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" x14ac:dyDescent="0.15">
+      <c r="R118">
+        <v>111</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="1"/>
+        <v>0.20451417319380719</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/回归结果/水稻.xlsx
+++ b/回归结果/水稻.xlsx
@@ -15,9 +15,6 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">回归结果!$A$21:$G$55</definedName>
   </definedNames>
@@ -1687,60 +1684,6 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,6 +1725,60 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6955,8 +6952,6 @@
         <c:axId val="357946712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="65"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7051,13 +7046,13 @@
         <c:crossAx val="357947040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="357947040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="400"/>
+          <c:max val="700"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7388,9 +7383,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>fertile</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>机械</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7426,7 +7422,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1219816272965872E-2"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.87755796150481191"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -10370,16 +10376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469789</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12431</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>326914</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10396,7 +10402,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="10144125" y="523875"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10408,16 +10414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469789</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60214</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>107681</xdr:rowOff>
+      <xdr:rowOff>31481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10434,7 +10440,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2762250"/>
+          <a:off x="9877425" y="2686050"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10446,16 +10452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>463693</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>145781</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>139843</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10472,7 +10478,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5543550"/>
+          <a:off x="9963150" y="4953000"/>
           <a:ext cx="4578493" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10483,914 +10489,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="统计性描述"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="方差检验"/>
-      <sheetName val="vif"/>
-      <sheetName val="各要素回归"/>
-      <sheetName val="回归结果"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7">
-        <row r="10">
-          <cell r="O10">
-            <v>1</v>
-          </cell>
-          <cell r="P10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="O11">
-            <v>2</v>
-          </cell>
-          <cell r="P11">
-            <v>1.3968834764909366</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="O12">
-            <v>3</v>
-          </cell>
-          <cell r="P12">
-            <v>1.5496067584084541</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="O13">
-            <v>4</v>
-          </cell>
-          <cell r="P13">
-            <v>1.600859531567592</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="O14">
-            <v>5</v>
-          </cell>
-          <cell r="P14">
-            <v>1.603676609530535</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="O15">
-            <v>6</v>
-          </cell>
-          <cell r="P15">
-            <v>1.5817105012466457</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="O16">
-            <v>7</v>
-          </cell>
-          <cell r="P16">
-            <v>1.5467580868046644</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="O17">
-            <v>8</v>
-          </cell>
-          <cell r="P17">
-            <v>1.5051477644582505</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="O18">
-            <v>9</v>
-          </cell>
-          <cell r="P18">
-            <v>1.4604424198708865</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="O19">
-            <v>10</v>
-          </cell>
-          <cell r="P19">
-            <v>1.4147101545832477</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="O20">
-            <v>11</v>
-          </cell>
-          <cell r="P20">
-            <v>1.3691700963515834</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="O21">
-            <v>12</v>
-          </cell>
-          <cell r="P21">
-            <v>1.3245408593445287</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="O22">
-            <v>13</v>
-          </cell>
-          <cell r="P22">
-            <v>1.2812376385626492</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="O23">
-            <v>14</v>
-          </cell>
-          <cell r="P23">
-            <v>1.2394879758959587</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="O24">
-            <v>15</v>
-          </cell>
-          <cell r="P24">
-            <v>1.1994018593695241</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="O25">
-            <v>16</v>
-          </cell>
-          <cell r="P25">
-            <v>1.1610152263939271</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="O26">
-            <v>17</v>
-          </cell>
-          <cell r="P26">
-            <v>1.1243174971181837</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="O27">
-            <v>18</v>
-          </cell>
-          <cell r="P27">
-            <v>1.0892692684668752</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="O28">
-            <v>19</v>
-          </cell>
-          <cell r="P28">
-            <v>1.0558138128604408</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="O29">
-            <v>20</v>
-          </cell>
-          <cell r="P29">
-            <v>1.0238846040193119</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="O30">
-            <v>21</v>
-          </cell>
-          <cell r="P30">
-            <v>0.99341025579825548</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="O31">
-            <v>22</v>
-          </cell>
-          <cell r="P31">
-            <v>0.96431775527094765</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="O32">
-            <v>23</v>
-          </cell>
-          <cell r="P32">
-            <v>0.93653455988504564</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="O33">
-            <v>24</v>
-          </cell>
-          <cell r="P33">
-            <v>0.90998993257037208</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="O34">
-            <v>25</v>
-          </cell>
-          <cell r="P34">
-            <v>0.88461576322664348</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="O35">
-            <v>26</v>
-          </cell>
-          <cell r="P35">
-            <v>0.86034704343508517</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="O36">
-            <v>27</v>
-          </cell>
-          <cell r="P36">
-            <v>0.83712210745191051</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="O37">
-            <v>28</v>
-          </cell>
-          <cell r="P37">
-            <v>0.81488271664589795</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="O38">
-            <v>29</v>
-          </cell>
-          <cell r="P38">
-            <v>0.793574040327653</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="O39">
-            <v>30</v>
-          </cell>
-          <cell r="P39">
-            <v>0.77314456942916032</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="O40">
-            <v>31</v>
-          </cell>
-          <cell r="P40">
-            <v>0.75354598817281282</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="O41">
-            <v>32</v>
-          </cell>
-          <cell r="P41">
-            <v>0.7347330210452071</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="O42">
-            <v>33</v>
-          </cell>
-          <cell r="P42">
-            <v>0.71666326695303162</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="O43">
-            <v>34</v>
-          </cell>
-          <cell r="P43">
-            <v>0.69929702864267995</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="O44">
-            <v>35</v>
-          </cell>
-          <cell r="P44">
-            <v>0.68259714280831196</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="O45">
-            <v>36</v>
-          </cell>
-          <cell r="P45">
-            <v>0.66652881445097045</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="O46">
-            <v>37</v>
-          </cell>
-          <cell r="P46">
-            <v>0.65105945774699558</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="O47">
-            <v>38</v>
-          </cell>
-          <cell r="P47">
-            <v>0.63615854477280454</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="O48">
-            <v>39</v>
-          </cell>
-          <cell r="P48">
-            <v>0.62179746280009962</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="O49">
-            <v>40</v>
-          </cell>
-          <cell r="P49">
-            <v>0.60794938043982649</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="O50">
-            <v>41</v>
-          </cell>
-          <cell r="P50">
-            <v>0.59458912261754537</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="O51">
-            <v>42</v>
-          </cell>
-          <cell r="P51">
-            <v>0.5816930541666363</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="O52">
-            <v>43</v>
-          </cell>
-          <cell r="P52">
-            <v>0.56923897170002991</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="O53">
-            <v>44</v>
-          </cell>
-          <cell r="P53">
-            <v>0.55720600334514081</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="O54">
-            <v>45</v>
-          </cell>
-          <cell r="P54">
-            <v>0.54557451588560424</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="O55">
-            <v>46</v>
-          </cell>
-          <cell r="P55">
-            <v>0.53432602883656144</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="O56">
-            <v>47</v>
-          </cell>
-          <cell r="P56">
-            <v>0.52344313497999628</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="O57">
-            <v>48</v>
-          </cell>
-          <cell r="P57">
-            <v>0.51290942689749031</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="O58">
-            <v>49</v>
-          </cell>
-          <cell r="P58">
-            <v>0.50270942905580862</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="O59">
-            <v>50</v>
-          </cell>
-          <cell r="P59">
-            <v>0.49282853502318125</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="O60">
-            <v>51</v>
-          </cell>
-          <cell r="P60">
-            <v>0.48325294941901381</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="O61">
-            <v>52</v>
-          </cell>
-          <cell r="P61">
-            <v>0.4739696342256664</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="O62">
-            <v>53</v>
-          </cell>
-          <cell r="P62">
-            <v>0.46496625911693867</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="O63">
-            <v>54</v>
-          </cell>
-          <cell r="P63">
-            <v>0.45623115548333615</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="O64">
-            <v>55</v>
-          </cell>
-          <cell r="P64">
-            <v>0.4477532738586581</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="O65">
-            <v>56</v>
-          </cell>
-          <cell r="P65">
-            <v>0.43952214447568078</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="O66">
-            <v>57</v>
-          </cell>
-          <cell r="P66">
-            <v>0.43152784070055189</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="O67">
-            <v>58</v>
-          </cell>
-          <cell r="P67">
-            <v>0.42376094511592816</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="O68">
-            <v>59</v>
-          </cell>
-          <cell r="P68">
-            <v>0.41621251804183312</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="O69">
-            <v>60</v>
-          </cell>
-          <cell r="P69">
-            <v>0.40887406830073897</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="O70">
-            <v>61</v>
-          </cell>
-          <cell r="P70">
-            <v>0.40173752604953161</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="O71">
-            <v>62</v>
-          </cell>
-          <cell r="P71">
-            <v>0.39479521751587082</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="O72">
-            <v>63</v>
-          </cell>
-          <cell r="P72">
-            <v>0.38803984149007165</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="O73">
-            <v>64</v>
-          </cell>
-          <cell r="P73">
-            <v>0.38146444743612673</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="O74">
-            <v>65</v>
-          </cell>
-          <cell r="P74">
-            <v>0.37506241509689697</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="O75">
-            <v>66</v>
-          </cell>
-          <cell r="P75">
-            <v>0.36882743547894636</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="O76">
-            <v>67</v>
-          </cell>
-          <cell r="P76">
-            <v>0.36275349311201455</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="O77">
-            <v>68</v>
-          </cell>
-          <cell r="P77">
-            <v>0.35683484948685545</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="O78">
-            <v>69</v>
-          </cell>
-          <cell r="P78">
-            <v>0.35106602758309358</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="O79">
-            <v>70</v>
-          </cell>
-          <cell r="P79">
-            <v>0.34544179740602382</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="O80">
-            <v>71</v>
-          </cell>
-          <cell r="P80">
-            <v>0.33995716245789986</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="O81">
-            <v>72</v>
-          </cell>
-          <cell r="P81">
-            <v>0.3346073470752986</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="O82">
-            <v>73</v>
-          </cell>
-          <cell r="P82">
-            <v>0.32938778456968332</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="O83">
-            <v>74</v>
-          </cell>
-          <cell r="P83">
-            <v>0.32429410611331821</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="O84">
-            <v>75</v>
-          </cell>
-          <cell r="P84">
-            <v>0.31932213031730999</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="O85">
-            <v>76</v>
-          </cell>
-          <cell r="P85">
-            <v>0.3144678534527463</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="O86">
-            <v>77</v>
-          </cell>
-          <cell r="P86">
-            <v>0.30972744026977911</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="O87">
-            <v>78</v>
-          </cell>
-          <cell r="P87">
-            <v>0.30509721537299461</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="O88">
-            <v>79</v>
-          </cell>
-          <cell r="P88">
-            <v>0.30057365511466161</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="O89">
-            <v>80</v>
-          </cell>
-          <cell r="P89">
-            <v>0.29615337997039182</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="O90">
-            <v>81</v>
-          </cell>
-          <cell r="P90">
-            <v>0.29183314736445243</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="O91">
-            <v>82</v>
-          </cell>
-          <cell r="P91">
-            <v>0.28760984491445407</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="O92">
-            <v>83</v>
-          </cell>
-          <cell r="P92">
-            <v>0.28348048406741422</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="O93">
-            <v>84</v>
-          </cell>
-          <cell r="P93">
-            <v>0.27944219410128113</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="O94">
-            <v>85</v>
-          </cell>
-          <cell r="P94">
-            <v>0.27549221646791994</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="O95">
-            <v>86</v>
-          </cell>
-          <cell r="P95">
-            <v>0.27162789945533827</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="O96">
-            <v>87</v>
-          </cell>
-          <cell r="P96">
-            <v>0.26784669314852061</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="O97">
-            <v>88</v>
-          </cell>
-          <cell r="P97">
-            <v>0.26414614466976855</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="O98">
-            <v>89</v>
-          </cell>
-          <cell r="P98">
-            <v>0.26052389368077844</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="O99">
-            <v>90</v>
-          </cell>
-          <cell r="P99">
-            <v>0.25697766812998213</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="O100">
-            <v>91</v>
-          </cell>
-          <cell r="P100">
-            <v>0.25350528022982383</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="O101">
-            <v>92</v>
-          </cell>
-          <cell r="P101">
-            <v>0.25010462264972105</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="O102">
-            <v>93</v>
-          </cell>
-          <cell r="P102">
-            <v>0.24677366491146174</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="O103">
-            <v>94</v>
-          </cell>
-          <cell r="P103">
-            <v>0.24351044997468327</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="O104">
-            <v>95</v>
-          </cell>
-          <cell r="P104">
-            <v>0.24031309100094819</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="O105">
-            <v>96</v>
-          </cell>
-          <cell r="P105">
-            <v>0.23717976828569154</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="O106">
-            <v>97</v>
-          </cell>
-          <cell r="P106">
-            <v>0.23410872634805241</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="O107">
-            <v>98</v>
-          </cell>
-          <cell r="P107">
-            <v>0.23109827116926382</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="O108">
-            <v>99</v>
-          </cell>
-          <cell r="P108">
-            <v>0.22814676757089572</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="O109">
-            <v>100</v>
-          </cell>
-          <cell r="P109">
-            <v>0.22525263672481832</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="O110">
-            <v>101</v>
-          </cell>
-          <cell r="P110">
-            <v>0.22241435378729466</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="O111">
-            <v>102</v>
-          </cell>
-          <cell r="P111">
-            <v>0.21963044565008386</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="O112">
-            <v>103</v>
-          </cell>
-          <cell r="P112">
-            <v>0.21689948880191826</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="O113">
-            <v>104</v>
-          </cell>
-          <cell r="P113">
-            <v>0.21422010729412905</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="O114">
-            <v>105</v>
-          </cell>
-          <cell r="P114">
-            <v>0.21159097080458905</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="O115">
-            <v>106</v>
-          </cell>
-          <cell r="P115">
-            <v>0.20901079279451917</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="O116">
-            <v>107</v>
-          </cell>
-          <cell r="P116">
-            <v>0.20647832875303412</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="O117">
-            <v>108</v>
-          </cell>
-          <cell r="P117">
-            <v>0.20399237452463079</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="O118">
-            <v>109</v>
-          </cell>
-          <cell r="P118">
-            <v>0.20155176471511591</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="O119">
-            <v>110</v>
-          </cell>
-          <cell r="P119">
-            <v>0.19915537117173715</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12216,7 +11314,7 @@
   <dimension ref="A1:BF148"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32:Q32"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13168,22 +12266,22 @@
     </row>
     <row r="10" spans="1:58" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -13216,7 +12314,7 @@
       <c r="AS10" s="1"/>
     </row>
     <row r="11" spans="1:58" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3"/>
@@ -13245,7 +12343,7 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:58" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -13651,7 +12749,7 @@
         <v>131.11699999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
@@ -14435,48 +13533,48 @@
     <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="56" t="s">
+      <c r="O32" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
     </row>
     <row r="33" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
     </row>
     <row r="34" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="3"/>
@@ -14533,7 +13631,7 @@
       <c r="AS34" s="3"/>
     </row>
     <row r="35" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A35" s="54"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
         <v>20</v>
@@ -17339,23 +16437,23 @@
       </c>
     </row>
     <row r="57" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="3"/>
@@ -17412,7 +16510,7 @@
       <c r="AS58" s="3"/>
     </row>
     <row r="59" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A59" s="54"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
         <v>20</v>
@@ -20218,23 +19316,23 @@
       </c>
     </row>
     <row r="81" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B82" s="3"/>
@@ -20291,7 +19389,7 @@
       <c r="AS82" s="3"/>
     </row>
     <row r="83" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A83" s="54"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
         <v>20</v>
@@ -23097,23 +22195,23 @@
       </c>
     </row>
     <row r="104" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="52"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="66"/>
     </row>
     <row r="105" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B105" s="3"/>
@@ -23170,7 +22268,7 @@
       <c r="AS105" s="3"/>
     </row>
     <row r="106" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A106" s="54"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6" t="s">
         <v>20</v>
@@ -25976,23 +25074,23 @@
       </c>
     </row>
     <row r="127" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
-      <c r="K127" s="52"/>
-      <c r="L127" s="52"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
+      <c r="J127" s="66"/>
+      <c r="K127" s="66"/>
+      <c r="L127" s="66"/>
     </row>
     <row r="128" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A128" s="53" t="s">
+      <c r="A128" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B128" s="3"/>
@@ -26049,7 +25147,7 @@
       <c r="AS128" s="3"/>
     </row>
     <row r="129" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A129" s="54"/>
+      <c r="A129" s="68"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>20</v>
@@ -28856,6 +27954,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A81:L81"/>
     <mergeCell ref="A82:A83"/>
@@ -28867,11 +27970,6 @@
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28910,32 +28008,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="E2" s="57" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="E2" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="I2" s="57" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="I2" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -30954,26 +30052,26 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -30998,15 +30096,15 @@
       <c r="G23" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -31032,15 +30130,15 @@
         <f>F24&amp;E24</f>
         <v>-0.039***</v>
       </c>
-      <c r="K24" s="67" t="s">
+      <c r="K24" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -32529,38 +31627,38 @@
       <c r="G69" s="27"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -32712,18 +31810,18 @@
       <c r="S78" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="T78" s="63" t="s">
+      <c r="T78" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="U78" s="63"/>
-      <c r="V78" s="63" t="s">
+      <c r="U78" s="76"/>
+      <c r="V78" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="W78" s="63"/>
-      <c r="X78" s="63" t="s">
+      <c r="W78" s="76"/>
+      <c r="X78" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="Y78" s="63"/>
+      <c r="Y78" s="76"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -32889,10 +31987,10 @@
         <f t="shared" si="5"/>
         <v>0.001**</v>
       </c>
-      <c r="J82" s="64" t="s">
+      <c r="J82" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="K82" s="64"/>
+      <c r="K82" s="72"/>
       <c r="L82" s="2"/>
       <c r="S82" s="47" t="s">
         <v>52</v>
@@ -33621,10 +32719,10 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">0 </v>
       </c>
-      <c r="J96" s="64" t="s">
+      <c r="J96" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="K96" s="64"/>
+      <c r="K96" s="72"/>
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
       <c r="S96" s="47" t="s">
@@ -34168,18 +33266,18 @@
       <c r="S108" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="T108" s="62" t="s">
+      <c r="T108" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="U108" s="62"/>
-      <c r="V108" s="62" t="s">
+      <c r="U108" s="77"/>
+      <c r="V108" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="W108" s="62"/>
-      <c r="X108" s="62" t="s">
+      <c r="W108" s="77"/>
+      <c r="X108" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="Y108" s="62"/>
+      <c r="Y108" s="77"/>
     </row>
     <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -34196,18 +33294,18 @@
       <c r="S109" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="T109" s="61" t="s">
+      <c r="T109" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="U109" s="61"/>
-      <c r="V109" s="62" t="s">
+      <c r="U109" s="81"/>
+      <c r="V109" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="W109" s="62"/>
-      <c r="X109" s="62" t="s">
+      <c r="W109" s="77"/>
+      <c r="X109" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="Y109" s="62"/>
+      <c r="Y109" s="77"/>
     </row>
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -34226,66 +33324,51 @@
       <c r="S110" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="T110" s="62" t="s">
+      <c r="T110" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="U110" s="62"/>
-      <c r="V110" s="62" t="s">
+      <c r="U110" s="77"/>
+      <c r="V110" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="W110" s="62"/>
-      <c r="X110" s="62" t="s">
+      <c r="W110" s="77"/>
+      <c r="X110" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="Y110" s="62"/>
+      <c r="Y110" s="77"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="S111" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="T111" s="58" t="s">
+      <c r="T111" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="U111" s="58"/>
-      <c r="V111" s="58"/>
-      <c r="W111" s="58"/>
-      <c r="X111" s="58"/>
-      <c r="Y111" s="58"/>
+      <c r="U111" s="78"/>
+      <c r="V111" s="78"/>
+      <c r="W111" s="78"/>
+      <c r="X111" s="78"/>
+      <c r="Y111" s="78"/>
     </row>
     <row r="112" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="S112" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="59">
+      <c r="T112" s="79">
         <v>0.33750000000000002</v>
       </c>
-      <c r="U112" s="59"/>
-      <c r="V112" s="60" t="s">
+      <c r="U112" s="79"/>
+      <c r="V112" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="W112" s="60"/>
-      <c r="X112" s="60" t="s">
+      <c r="W112" s="80"/>
+      <c r="X112" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="Y112" s="60"/>
+      <c r="Y112" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="T108:U108"/>
-    <mergeCell ref="V108:W108"/>
-    <mergeCell ref="X108:Y108"/>
     <mergeCell ref="T111:Y111"/>
     <mergeCell ref="T112:U112"/>
     <mergeCell ref="V112:W112"/>
@@ -34296,6 +33379,21 @@
     <mergeCell ref="T110:U110"/>
     <mergeCell ref="V110:W110"/>
     <mergeCell ref="X110:Y110"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="T108:U108"/>
+    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="X108:Y108"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A70:G70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34308,8 +33406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CX238"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CA3" sqref="CA3:CX8"/>
+    <sheetView topLeftCell="BH10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BW16" sqref="BW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34334,18 +33432,18 @@
       <c r="A2" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="82"/>
       <c r="J2" s="10" t="s">
         <v>67</v>
       </c>
@@ -39935,18 +39033,18 @@
       <c r="A32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="77"/>
+      <c r="F32" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="62"/>
+      <c r="G32" s="77"/>
       <c r="J32" s="4">
         <v>2013</v>
       </c>
@@ -40047,18 +39145,18 @@
       <c r="A33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62" t="s">
+      <c r="E33" s="77"/>
+      <c r="F33" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="77"/>
       <c r="J33" s="4">
         <v>2014</v>
       </c>
@@ -40159,18 +39257,18 @@
       <c r="A34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62" t="s">
+      <c r="E34" s="77"/>
+      <c r="F34" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="62"/>
+      <c r="G34" s="77"/>
       <c r="J34" s="4">
         <v>2015</v>
       </c>
@@ -40271,12 +39369,12 @@
       <c r="A35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="13"/>
       <c r="J35" s="4" t="s">
         <v>86</v>
@@ -40378,8 +39476,8 @@
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
@@ -49146,12 +48244,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -49160,6 +48252,12 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49172,33 +48270,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="6:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="6:19" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70" t="s">
+      <c r="H8" s="83"/>
+      <c r="I8" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70" t="s">
+      <c r="J8" s="83"/>
+      <c r="K8" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70" t="s">
+      <c r="L8" s="83"/>
+      <c r="M8" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="N8" s="70"/>
+      <c r="N8" s="83"/>
       <c r="R8">
         <v>1</v>
       </c>
@@ -49208,7 +48306,7 @@
       </c>
     </row>
     <row r="9" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="53" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="38" t="s">
@@ -49217,22 +48315,22 @@
       <c r="H9" s="51">
         <v>9.3671999999999991E-3</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="55">
         <v>0.03</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="57">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="55">
         <v>0.22800000000000001</v>
       </c>
       <c r="R9">
@@ -49244,7 +48342,7 @@
       </c>
     </row>
     <row r="10" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="53" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="38">
@@ -49268,25 +48366,25 @@
       </c>
     </row>
     <row r="11" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="59">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="61">
         <v>1.2E-2</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="59">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="R11">
@@ -49298,7 +48396,7 @@
       </c>
     </row>
     <row r="12" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="53" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="38" t="s">
@@ -49307,12 +48405,12 @@
       <c r="H12" s="51">
         <v>6.9480500000000001E-2</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
       <c r="R12">
         <v>5</v>
       </c>
@@ -49322,7 +48420,7 @@
       </c>
     </row>
     <row r="13" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="53" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="38" t="s">
@@ -49331,12 +48429,12 @@
       <c r="H13" s="51">
         <v>8.9409500000000003E-2</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="R13">
         <v>6</v>
       </c>
@@ -49346,7 +48444,7 @@
       </c>
     </row>
     <row r="14" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="53" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="38" t="s">
@@ -49355,12 +48453,12 @@
       <c r="H14" s="51">
         <v>1.06905E-2</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="64"/>
       <c r="R14">
         <v>7</v>
       </c>
@@ -49370,7 +48468,7 @@
       </c>
     </row>
     <row r="15" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="53" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="38" t="s">
@@ -49379,12 +48477,12 @@
       <c r="H15" s="51">
         <v>0.1415739</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="R15">
         <v>8</v>
       </c>
@@ -49394,7 +48492,7 @@
       </c>
     </row>
     <row r="16" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="53" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="38" t="s">
@@ -49403,12 +48501,12 @@
       <c r="H16" s="51">
         <v>5.4298999999999997E-3</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
       <c r="R16">
         <v>9</v>
       </c>
@@ -49418,7 +48516,7 @@
       </c>
     </row>
     <row r="17" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="53" t="s">
         <v>51</v>
       </c>
       <c r="G17" s="38" t="s">
@@ -49427,12 +48525,12 @@
       <c r="H17" s="51">
         <v>8.3345999999999993E-3</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="82"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="R17">
         <v>10</v>
       </c>
@@ -49442,7 +48540,7 @@
       </c>
     </row>
     <row r="18" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="53" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="38" t="s">
@@ -49451,12 +48549,12 @@
       <c r="H18" s="51">
         <v>3.456E-4</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="82"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
       <c r="R18">
         <v>11</v>
       </c>
@@ -49466,7 +48564,7 @@
       </c>
     </row>
     <row r="19" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="53" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="38" t="s">
@@ -49475,12 +48573,12 @@
       <c r="H19" s="51">
         <v>1.3462E-2</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="82"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="R19">
         <v>12</v>
       </c>
@@ -49490,7 +48588,7 @@
       </c>
     </row>
     <row r="20" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="53" t="s">
         <v>251</v>
       </c>
       <c r="G20" s="38" t="s">
@@ -49499,12 +48597,12 @@
       <c r="H20" s="51">
         <v>9.8183999999999997E-3</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="82"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="64"/>
       <c r="R20">
         <v>13</v>
       </c>
@@ -49514,7 +48612,7 @@
       </c>
     </row>
     <row r="21" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="53" t="s">
         <v>252</v>
       </c>
       <c r="G21" s="38" t="s">
@@ -49523,12 +48621,12 @@
       <c r="H21" s="51">
         <v>1.701E-3</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="82"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
       <c r="R21">
         <v>14</v>
       </c>
@@ -49538,7 +48636,7 @@
       </c>
     </row>
     <row r="22" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="53" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="38" t="s">
@@ -49547,12 +48645,12 @@
       <c r="H22" s="51">
         <v>1.06131E-2</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="82"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="64"/>
       <c r="R22">
         <v>15</v>
       </c>
@@ -49562,7 +48660,7 @@
       </c>
     </row>
     <row r="23" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="53" t="s">
         <v>253</v>
       </c>
       <c r="G23" s="38" t="s">
@@ -49571,12 +48669,12 @@
       <c r="H23" s="51">
         <v>1.3545E-3</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="82"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64"/>
       <c r="R23">
         <v>16</v>
       </c>
@@ -49586,7 +48684,7 @@
       </c>
     </row>
     <row r="24" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="53" t="s">
         <v>83</v>
       </c>
       <c r="G24" s="38" t="s">
@@ -49595,12 +48693,12 @@
       <c r="H24" s="51">
         <v>1.2107700000000001E-2</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="82"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="64"/>
       <c r="R24">
         <v>17</v>
       </c>
@@ -49610,7 +48708,7 @@
       </c>
     </row>
     <row r="25" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="53" t="s">
         <v>254</v>
       </c>
       <c r="G25" s="38" t="s">
@@ -49619,12 +48717,12 @@
       <c r="H25" s="51">
         <v>1.6972999999999999E-3</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="82"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="64"/>
       <c r="R25">
         <v>18</v>
       </c>
@@ -49634,7 +48732,7 @@
       </c>
     </row>
     <row r="26" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="53" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="38" t="s">
@@ -49643,12 +48741,12 @@
       <c r="H26" s="51">
         <v>1.0437699999999999E-2</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="64"/>
       <c r="R26">
         <v>19</v>
       </c>
@@ -49658,7 +48756,7 @@
       </c>
     </row>
     <row r="27" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="53" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="38" t="s">
@@ -49667,12 +48765,12 @@
       <c r="H27" s="51">
         <v>3.1500000000000001E-4</v>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="82"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="64"/>
       <c r="R27">
         <v>20</v>
       </c>
@@ -49682,7 +48780,7 @@
       </c>
     </row>
     <row r="28" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -49691,12 +48789,12 @@
       <c r="H28" s="51">
         <v>1.1716000000000001E-3</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="64"/>
       <c r="R28">
         <v>21</v>
       </c>
@@ -49706,7 +48804,7 @@
       </c>
     </row>
     <row r="29" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="38" t="s">
@@ -49715,12 +48813,12 @@
       <c r="H29" s="51">
         <v>1.0641400000000001E-2</v>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="82"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
       <c r="R29">
         <v>22</v>
       </c>
@@ -49730,7 +48828,7 @@
       </c>
     </row>
     <row r="30" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="38" t="s">
@@ -49739,12 +48837,12 @@
       <c r="H30" s="51">
         <v>3.5324000000000002E-3</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="82"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="64"/>
       <c r="R30">
         <v>23</v>
       </c>
@@ -49754,7 +48852,7 @@
       </c>
     </row>
     <row r="31" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="53" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="38" t="s">
@@ -49763,12 +48861,12 @@
       <c r="H31" s="51">
         <v>6.0400000000000002E-3</v>
       </c>
-      <c r="I31" s="71"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="82"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="64"/>
       <c r="R31">
         <v>24</v>
       </c>
@@ -49778,7 +48876,7 @@
       </c>
     </row>
     <row r="32" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="53" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="38" t="s">
@@ -49787,12 +48885,12 @@
       <c r="H32" s="51">
         <v>4.9725999999999998E-3</v>
       </c>
-      <c r="I32" s="71"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="82"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="64"/>
       <c r="R32">
         <v>25</v>
       </c>
@@ -49802,7 +48900,7 @@
       </c>
     </row>
     <row r="33" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="38" t="s">
@@ -49811,12 +48909,12 @@
       <c r="H33" s="51">
         <v>8.2640000000000003E-4</v>
       </c>
-      <c r="I33" s="71"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="82"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="64"/>
       <c r="R33">
         <v>26</v>
       </c>
@@ -49826,7 +48924,7 @@
       </c>
     </row>
     <row r="34" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="53" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="38" t="s">
@@ -49835,12 +48933,12 @@
       <c r="H34" s="51">
         <v>6.6414999999999998E-3</v>
       </c>
-      <c r="I34" s="71"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="82"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="64"/>
       <c r="R34">
         <v>27</v>
       </c>
@@ -49850,7 +48948,7 @@
       </c>
     </row>
     <row r="35" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="53" t="s">
         <v>63</v>
       </c>
       <c r="G35" s="38" t="s">
@@ -49859,12 +48957,12 @@
       <c r="H35" s="51">
         <v>9.5768999999999993E-3</v>
       </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="82"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="64"/>
       <c r="R35">
         <v>28</v>
       </c>
@@ -49874,7 +48972,7 @@
       </c>
     </row>
     <row r="36" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="53" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="38" t="s">
@@ -49883,12 +48981,12 @@
       <c r="H36" s="51">
         <v>1.22644E-2</v>
       </c>
-      <c r="I36" s="71"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="82"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="64"/>
       <c r="R36">
         <v>29</v>
       </c>
@@ -49898,7 +48996,7 @@
       </c>
     </row>
     <row r="37" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="53" t="s">
         <v>64</v>
       </c>
       <c r="G37" s="38" t="s">
@@ -49907,12 +49005,12 @@
       <c r="H37" s="51">
         <v>9.4410000000000002E-4</v>
       </c>
-      <c r="I37" s="71"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="82"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
       <c r="R37">
         <v>30</v>
       </c>
@@ -49922,7 +49020,7 @@
       </c>
     </row>
     <row r="38" spans="6:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="53" t="s">
         <v>86</v>
       </c>
       <c r="G38" s="38" t="s">
@@ -49931,12 +49029,12 @@
       <c r="H38" s="51">
         <v>0.41595779999999999</v>
       </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="82"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="64"/>
       <c r="R38">
         <v>31</v>
       </c>
@@ -49946,7 +49044,7 @@
       </c>
     </row>
     <row r="39" spans="6:19" x14ac:dyDescent="0.15">
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="65" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="84" t="s">

--- a/回归结果/水稻.xlsx
+++ b/回归结果/水稻.xlsx
@@ -1744,6 +1744,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,24 +1773,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7372,10 +7372,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7383,10 +7380,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>机械</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>水稻</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7406,10 +7411,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7442,7 +7444,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7803,334 +7805,334 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4205396417223954</c:v>
+                  <c:v>0.78756556053913196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5885726846138004</c:v>
+                  <c:v>0.67201212419757106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6491885709323237</c:v>
+                  <c:v>0.59538208651495284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6576360748874783</c:v>
+                  <c:v>0.53938843273213655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6389286314720146</c:v>
+                  <c:v>0.49600594927750163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6056914800006585</c:v>
+                  <c:v>0.46104048417161436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5647713152435012</c:v>
+                  <c:v>0.43204316741197929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5200653043761501</c:v>
+                  <c:v>0.40746923552987246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.473863047684139</c:v>
+                  <c:v>0.38628680634597895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.427533817963603</c:v>
+                  <c:v>0.36777541037086364</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3818999303809072</c:v>
+                  <c:v>0.35141394645310053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.337449293587641</c:v>
+                  <c:v>0.33681449322786861</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2944610426223444</c:v>
+                  <c:v>0.32368125647727247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2530820966805591</c:v>
+                  <c:v>0.31178406119928215</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2133749843291739</c:v>
+                  <c:v>0.30094064637745022</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1753483258634929</c:v>
+                  <c:v>0.29100449304493675</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1389765743436862</c:v>
+                  <c:v>0.28185624519622293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1042129568928944</c:v>
+                  <c:v>0.27339753006858147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0709980308407201</c:v>
+                  <c:v>0.2655464206568694</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0392653672401997</c:v>
+                  <c:v>0.25823404691192836</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0089453278484495</c:v>
+                  <c:v>0.25140202606931811</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97996756321992229</c:v>
+                  <c:v>0.24500048729362575</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95226264577974618</c:v>
+                  <c:v>0.23898653429746358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92576311432208647</c:v>
+                  <c:v>0.23332303530971812</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90040411665205644</c:v>
+                  <c:v>0.22797766087365273</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.87612377768442551</c:v>
+                  <c:v>0.22292211148904512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8528633804914475</c:v>
+                  <c:v>0.218131492255938</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83056742080361057</c:v>
+                  <c:v>0.21358380248187425</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80918357699701049</c:v>
+                  <c:v>0.20925951602595066</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7886626248526396</c:v>
+                  <c:v>0.20514123387031893</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.76895831750882337</c:v>
+                  <c:v>0.20121339464205912</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.75002724482650351</c:v>
+                  <c:v>0.19746203197455592</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7318286820264106</c:v>
+                  <c:v>0.19387456998952907</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.71432443437917637</c:v>
+                  <c:v>0.1904396500046463</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.69747868255133938</c:v>
+                  <c:v>0.18714698297414742</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.68125783166721043</c:v>
+                  <c:v>0.18398722325715453</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.66563036605410286</c:v>
+                  <c:v>0.18095186015759823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.65056671086699103</c:v>
+                  <c:v>0.17803312434778451</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.63603910124660379</c:v>
+                  <c:v>0.17522390681674918</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.62202145928731922</c:v>
+                  <c:v>0.17251768840627416</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.60848927883146264</c:v>
+                  <c:v>0.16990847833559075</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.59541951793146353</c:v>
+                  <c:v>0.16739076038848569</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.58279049870674648</c:v>
+                  <c:v>0.16495944565761492</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.57058181425092325</c:v>
+                  <c:v>0.16260983092100958</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.55877424220426142</c:v>
+                  <c:v>0.16033756187331336</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.54734966458744305</c:v>
+                  <c:v>0.1581386005556967</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.53629099348871867</c:v>
+                  <c:v>0.15600919642872585</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.52558210220289814</c:v>
+                  <c:v>0.15394586061573673</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.51520776143380898</c:v>
+                  <c:v>0.15194534291365375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.50515358018934164</c:v>
+                  <c:v>0.15000461122624836</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.49540595101825585</c:v>
+                  <c:v>0.1481208331235713</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.48595199925926541</c:v>
+                  <c:v>0.14629135927237294</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.47677953599463935</c:v>
+                  <c:v>0.14451370851705531</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.46787701442207802</c:v>
+                  <c:v>0.14278555442016802</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.45923348937951586</c:v>
+                  <c:v>0.14110471309653208</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.45083857977746994</c:v>
+                  <c:v>0.13946913219648646</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.44268243371250587</c:v>
+                  <c:v>0.1378768809120742</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.43475569605316994</c:v>
+                  <c:v>0.13632614089572145</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.42704947830633477</c:v>
+                  <c:v>0.13481519799450545</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.41955533058736338</c:v>
+                  <c:v>0.13334243471480042</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.41226521553176743</c:v>
+                  <c:v>0.13190632334220689</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.40517148399924102</c:v>
+                  <c:v>0.1305054196504439</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.39826685243309728</c:v>
+                  <c:v>0.12913835714051622</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.39154438174931511</c:v>
+                  <c:v>0.12780384175811785</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.38499745763965554</c:v>
+                  <c:v>0.12650064704303954</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.37861977218271159</c:v>
+                  <c:v>0.12522760966943433</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.37240530666539046</c:v>
+                  <c:v>0.12398362534025242</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.36634831552521163</c:v>
+                  <c:v>0.12276764500307508</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.36044331133103469</c:v>
+                  <c:v>0.12157867135803016</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.35468505072645656</c:v>
+                  <c:v>0.12041575563151342</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.34906852126616422</c:v>
+                  <c:v>0.11927799459213353</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.34358892908107702</c:v>
+                  <c:v>0.11816452778767902</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.33824168731318788</c:v>
+                  <c:v>0.11707453498401944</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.33302240526565141</c:v>
+                  <c:v>0.11600723378873207</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.32792687821792477</c:v>
+                  <c:v>0.11496187744391281</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.32295107785966681</c:v>
+                  <c:v>0.11393775277412428</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.31809114330065852</c:v>
+                  <c:v>0.11293417827675765</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.31334337261729228</c:v>
+                  <c:v>0.11195050234327905</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.30870421489917532</c:v>
+                  <c:v>0.1109861016008923</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30417026276214149</c:v>
+                  <c:v>0.11004037936510427</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.29973824529649534</c:v>
+                  <c:v>0.10911276419453787</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.2954050214216376</c:v>
+                  <c:v>0.10820270854010498</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.29116757362034384</c:v>
+                  <c:v>0.10730968748134907</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.28702300202793818</c:v>
+                  <c:v>0.10643319754338854</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.28296851885340396</c:v>
+                  <c:v>0.10557275558845949</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.27900144311112351</c:v>
+                  <c:v>0.1047278977765634</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.27511919564348669</c:v>
+                  <c:v>0.10389817859019032</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.27131929441599306</c:v>
+                  <c:v>0.1030831699185024</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.26759935006778834</c:v>
+                  <c:v>0.10228246019674365</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.26395706170176531</c:v>
+                  <c:v>0.10149565359698701</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.26039021289945552</c:v>
+                  <c:v>0.10072236926663877</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.25689666794698174</c:v>
+                  <c:v>9.996224061140993E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.25347436825925274</c:v>
+                  <c:v>9.9214914619718431E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.25012132899048289</c:v>
+                  <c:v>9.848005122572602E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.24683563581990062</c:v>
+                  <c:v>9.7757322708428157E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.24361544190227261</c:v>
+                  <c:v>9.7046413124410716E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.24045896497355265</c:v>
+                  <c:v>9.6347017772070428E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.23736448460260559</c:v>
+                  <c:v>9.5658842685257664E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.23433033958055019</c:v>
+                  <c:v>9.4981604154453808E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.23135492543982053</c:v>
+                  <c:v>9.4315028273733004E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.2284366920955398</c:v>
+                  <c:v>9.3658850511883662E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.22557414160229838</c:v>
+                  <c:v>9.3012815306185007E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.22276582601984998</c:v>
+                  <c:v>9.2376675677438472E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.22001034538164993</c:v>
+                  <c:v>9.1750192864953131E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.2173063457605586</c:v>
+                  <c:v>9.1133135980276878E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.21465251742636071</c:v>
+                  <c:v>9.0525281678546288E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.21204759309010426</c:v>
+                  <c:v>8.9926413846407524E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.20949034623055821</c:v>
+                  <c:v>8.9336323305530527E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.20697958949837311</c:v>
+                  <c:v>8.8754807530805349E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.20451417319380719</c:v>
+                  <c:v>8.81816703823705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8160,20 +8162,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8182,10 +8170,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -8198,12 +8183,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -8222,20 +8204,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8244,10 +8212,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -8259,12 +8224,7 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -8280,7 +8240,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -8290,16 +8252,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10346,16 +10301,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10376,16 +10331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>326914</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>155306</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174514</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10402,7 +10357,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10144125" y="523875"/>
+          <a:off x="5876925" y="2305050"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27954,11 +27909,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A81:L81"/>
     <mergeCell ref="A82:A83"/>
@@ -27970,6 +27920,11 @@
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30052,7 +30007,7 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="80" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="66"/>
@@ -30063,15 +30018,15 @@
       <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -30130,15 +30085,15 @@
         <f>F24&amp;E24</f>
         <v>-0.039***</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -31638,27 +31593,27 @@
       <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -31810,18 +31765,18 @@
       <c r="S78" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="T78" s="76" t="s">
+      <c r="T78" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="U78" s="76"/>
-      <c r="V78" s="76" t="s">
+      <c r="U78" s="77"/>
+      <c r="V78" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="W78" s="76"/>
-      <c r="X78" s="76" t="s">
+      <c r="W78" s="77"/>
+      <c r="X78" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="Y78" s="76"/>
+      <c r="Y78" s="77"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -31987,10 +31942,10 @@
         <f t="shared" si="5"/>
         <v>0.001**</v>
       </c>
-      <c r="J82" s="72" t="s">
+      <c r="J82" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="K82" s="72"/>
+      <c r="K82" s="78"/>
       <c r="L82" s="2"/>
       <c r="S82" s="47" t="s">
         <v>52</v>
@@ -32719,10 +32674,10 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">0 </v>
       </c>
-      <c r="J96" s="72" t="s">
+      <c r="J96" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="K96" s="72"/>
+      <c r="K96" s="78"/>
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
       <c r="S96" s="47" t="s">
@@ -33266,18 +33221,18 @@
       <c r="S108" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="T108" s="77" t="s">
+      <c r="T108" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="U108" s="77"/>
-      <c r="V108" s="77" t="s">
+      <c r="U108" s="76"/>
+      <c r="V108" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="W108" s="77"/>
-      <c r="X108" s="77" t="s">
+      <c r="W108" s="76"/>
+      <c r="X108" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="Y108" s="77"/>
+      <c r="Y108" s="76"/>
     </row>
     <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -33294,18 +33249,18 @@
       <c r="S109" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="T109" s="81" t="s">
+      <c r="T109" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="U109" s="81"/>
-      <c r="V109" s="77" t="s">
+      <c r="U109" s="75"/>
+      <c r="V109" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="W109" s="77"/>
-      <c r="X109" s="77" t="s">
+      <c r="W109" s="76"/>
+      <c r="X109" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="Y109" s="77"/>
+      <c r="Y109" s="76"/>
     </row>
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -33324,51 +33279,66 @@
       <c r="S110" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="T110" s="77" t="s">
+      <c r="T110" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="U110" s="77"/>
-      <c r="V110" s="77" t="s">
+      <c r="U110" s="76"/>
+      <c r="V110" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="W110" s="77"/>
-      <c r="X110" s="77" t="s">
+      <c r="W110" s="76"/>
+      <c r="X110" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="Y110" s="77"/>
+      <c r="Y110" s="76"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="S111" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="T111" s="78" t="s">
+      <c r="T111" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="U111" s="78"/>
-      <c r="V111" s="78"/>
-      <c r="W111" s="78"/>
-      <c r="X111" s="78"/>
-      <c r="Y111" s="78"/>
+      <c r="U111" s="72"/>
+      <c r="V111" s="72"/>
+      <c r="W111" s="72"/>
+      <c r="X111" s="72"/>
+      <c r="Y111" s="72"/>
     </row>
     <row r="112" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="S112" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="79">
+      <c r="T112" s="73">
         <v>0.33750000000000002</v>
       </c>
-      <c r="U112" s="79"/>
-      <c r="V112" s="80" t="s">
+      <c r="U112" s="73"/>
+      <c r="V112" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="W112" s="80"/>
-      <c r="X112" s="80" t="s">
+      <c r="W112" s="74"/>
+      <c r="X112" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="Y112" s="80"/>
+      <c r="Y112" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="T108:U108"/>
+    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="X108:Y108"/>
     <mergeCell ref="T111:Y111"/>
     <mergeCell ref="T112:U112"/>
     <mergeCell ref="V112:W112"/>
@@ -33379,21 +33349,6 @@
     <mergeCell ref="T110:U110"/>
     <mergeCell ref="V110:W110"/>
     <mergeCell ref="X110:Y110"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="T108:U108"/>
-    <mergeCell ref="V108:W108"/>
-    <mergeCell ref="X108:Y108"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A70:G70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33406,8 +33361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CX238"/>
   <sheetViews>
-    <sheetView topLeftCell="BH10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BW16" sqref="BW16"/>
+    <sheetView topLeftCell="BY1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CA4" sqref="CA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39033,18 +38988,18 @@
       <c r="A32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77" t="s">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77" t="s">
+      <c r="E32" s="76"/>
+      <c r="F32" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="77"/>
+      <c r="G32" s="76"/>
       <c r="J32" s="4">
         <v>2013</v>
       </c>
@@ -39145,18 +39100,18 @@
       <c r="A33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="77" t="s">
+      <c r="C33" s="75"/>
+      <c r="D33" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77" t="s">
+      <c r="E33" s="76"/>
+      <c r="F33" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="77"/>
+      <c r="G33" s="76"/>
       <c r="J33" s="4">
         <v>2014</v>
       </c>
@@ -39257,18 +39212,18 @@
       <c r="A34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77" t="s">
+      <c r="C34" s="76"/>
+      <c r="D34" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77" t="s">
+      <c r="E34" s="76"/>
+      <c r="F34" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="77"/>
+      <c r="G34" s="76"/>
       <c r="J34" s="4">
         <v>2015</v>
       </c>
@@ -39369,12 +39324,12 @@
       <c r="A35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="13"/>
       <c r="J35" s="4" t="s">
         <v>86</v>
@@ -39476,8 +39431,8 @@
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
@@ -48244,6 +48199,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -48252,12 +48213,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48270,8 +48225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8:S118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -48301,7 +48256,7 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <f>EXP(0.652*LN(R8)-0.21*(LN(R8))^2)</f>
+        <f>EXP(-0.315*LN(R8)-0.0426*(LN(R8))^2)</f>
         <v>1</v>
       </c>
     </row>
@@ -48337,8 +48292,8 @@
         <v>2</v>
       </c>
       <c r="S9">
-        <f t="shared" ref="S9:S72" si="0">EXP(0.652*LN(R9)-0.21*(LN(R9))^2)</f>
-        <v>1.4205396417223954</v>
+        <f t="shared" ref="S9:S72" si="0">EXP(-0.315*LN(R9)-0.0426*(LN(R9))^2)</f>
+        <v>0.78756556053913196</v>
       </c>
     </row>
     <row r="10" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48362,7 +48317,7 @@
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>1.5885726846138004</v>
+        <v>0.67201212419757106</v>
       </c>
     </row>
     <row r="11" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48392,7 +48347,7 @@
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>1.6491885709323237</v>
+        <v>0.59538208651495284</v>
       </c>
     </row>
     <row r="12" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48416,7 +48371,7 @@
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>1.6576360748874783</v>
+        <v>0.53938843273213655</v>
       </c>
     </row>
     <row r="13" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48440,7 +48395,7 @@
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>1.6389286314720146</v>
+        <v>0.49600594927750163</v>
       </c>
     </row>
     <row r="14" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48464,7 +48419,7 @@
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>1.6056914800006585</v>
+        <v>0.46104048417161436</v>
       </c>
     </row>
     <row r="15" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48488,7 +48443,7 @@
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>1.5647713152435012</v>
+        <v>0.43204316741197929</v>
       </c>
     </row>
     <row r="16" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48512,7 +48467,7 @@
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
-        <v>1.5200653043761501</v>
+        <v>0.40746923552987246</v>
       </c>
     </row>
     <row r="17" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48536,7 +48491,7 @@
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
-        <v>1.473863047684139</v>
+        <v>0.38628680634597895</v>
       </c>
     </row>
     <row r="18" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48560,7 +48515,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
-        <v>1.427533817963603</v>
+        <v>0.36777541037086364</v>
       </c>
     </row>
     <row r="19" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48584,7 +48539,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
-        <v>1.3818999303809072</v>
+        <v>0.35141394645310053</v>
       </c>
     </row>
     <row r="20" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48608,7 +48563,7 @@
       </c>
       <c r="S20">
         <f t="shared" si="0"/>
-        <v>1.337449293587641</v>
+        <v>0.33681449322786861</v>
       </c>
     </row>
     <row r="21" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48632,7 +48587,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="0"/>
-        <v>1.2944610426223444</v>
+        <v>0.32368125647727247</v>
       </c>
     </row>
     <row r="22" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48656,7 +48611,7 @@
       </c>
       <c r="S22">
         <f t="shared" si="0"/>
-        <v>1.2530820966805591</v>
+        <v>0.31178406119928215</v>
       </c>
     </row>
     <row r="23" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48680,7 +48635,7 @@
       </c>
       <c r="S23">
         <f t="shared" si="0"/>
-        <v>1.2133749843291739</v>
+        <v>0.30094064637745022</v>
       </c>
     </row>
     <row r="24" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48704,7 +48659,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>1.1753483258634929</v>
+        <v>0.29100449304493675</v>
       </c>
     </row>
     <row r="25" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48728,7 +48683,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>1.1389765743436862</v>
+        <v>0.28185624519622293</v>
       </c>
     </row>
     <row r="26" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48752,7 +48707,7 @@
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>1.1042129568928944</v>
+        <v>0.27339753006858147</v>
       </c>
     </row>
     <row r="27" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48776,7 +48731,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
-        <v>1.0709980308407201</v>
+        <v>0.2655464206568694</v>
       </c>
     </row>
     <row r="28" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48800,7 +48755,7 @@
       </c>
       <c r="S28">
         <f t="shared" si="0"/>
-        <v>1.0392653672401997</v>
+        <v>0.25823404691192836</v>
       </c>
     </row>
     <row r="29" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48824,7 +48779,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="0"/>
-        <v>1.0089453278484495</v>
+        <v>0.25140202606931811</v>
       </c>
     </row>
     <row r="30" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48848,7 +48803,7 @@
       </c>
       <c r="S30">
         <f t="shared" si="0"/>
-        <v>0.97996756321992229</v>
+        <v>0.24500048729362575</v>
       </c>
     </row>
     <row r="31" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48872,7 +48827,7 @@
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>0.95226264577974618</v>
+        <v>0.23898653429746358</v>
       </c>
     </row>
     <row r="32" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48896,7 +48851,7 @@
       </c>
       <c r="S32">
         <f t="shared" si="0"/>
-        <v>0.92576311432208647</v>
+        <v>0.23332303530971812</v>
       </c>
     </row>
     <row r="33" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48920,7 +48875,7 @@
       </c>
       <c r="S33">
         <f t="shared" si="0"/>
-        <v>0.90040411665205644</v>
+        <v>0.22797766087365273</v>
       </c>
     </row>
     <row r="34" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48944,7 +48899,7 @@
       </c>
       <c r="S34">
         <f t="shared" si="0"/>
-        <v>0.87612377768442551</v>
+        <v>0.22292211148904512</v>
       </c>
     </row>
     <row r="35" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48968,7 +48923,7 @@
       </c>
       <c r="S35">
         <f t="shared" si="0"/>
-        <v>0.8528633804914475</v>
+        <v>0.218131492255938</v>
       </c>
     </row>
     <row r="36" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -48992,7 +48947,7 @@
       </c>
       <c r="S36">
         <f t="shared" si="0"/>
-        <v>0.83056742080361057</v>
+        <v>0.21358380248187425</v>
       </c>
     </row>
     <row r="37" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -49016,7 +48971,7 @@
       </c>
       <c r="S37">
         <f t="shared" si="0"/>
-        <v>0.80918357699701049</v>
+        <v>0.20925951602595066</v>
       </c>
     </row>
     <row r="38" spans="6:19" ht="15" x14ac:dyDescent="0.15">
@@ -49040,7 +48995,7 @@
       </c>
       <c r="S38">
         <f t="shared" si="0"/>
-        <v>0.7886626248526396</v>
+        <v>0.20514123387031893</v>
       </c>
     </row>
     <row r="39" spans="6:19" x14ac:dyDescent="0.15">
@@ -49062,7 +49017,7 @@
       </c>
       <c r="S39">
         <f t="shared" si="0"/>
-        <v>0.76895831750882337</v>
+        <v>0.20121339464205912</v>
       </c>
     </row>
     <row r="40" spans="6:19" x14ac:dyDescent="0.15">
@@ -49071,7 +49026,7 @@
       </c>
       <c r="S40">
         <f t="shared" si="0"/>
-        <v>0.75002724482650351</v>
+        <v>0.19746203197455592</v>
       </c>
     </row>
     <row r="41" spans="6:19" x14ac:dyDescent="0.15">
@@ -49080,7 +49035,7 @@
       </c>
       <c r="S41">
         <f t="shared" si="0"/>
-        <v>0.7318286820264106</v>
+        <v>0.19387456998952907</v>
       </c>
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.15">
@@ -49089,7 +49044,7 @@
       </c>
       <c r="S42">
         <f t="shared" si="0"/>
-        <v>0.71432443437917637</v>
+        <v>0.1904396500046463</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.15">
@@ -49098,7 +49053,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="0"/>
-        <v>0.69747868255133938</v>
+        <v>0.18714698297414742</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.15">
@@ -49107,7 +49062,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="0"/>
-        <v>0.68125783166721043</v>
+        <v>0.18398722325715453</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.15">
@@ -49116,7 +49071,7 @@
       </c>
       <c r="S45">
         <f t="shared" si="0"/>
-        <v>0.66563036605410286</v>
+        <v>0.18095186015759823</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.15">
@@ -49125,7 +49080,7 @@
       </c>
       <c r="S46">
         <f t="shared" si="0"/>
-        <v>0.65056671086699103</v>
+        <v>0.17803312434778451</v>
       </c>
     </row>
     <row r="47" spans="6:19" x14ac:dyDescent="0.15">
@@ -49134,7 +49089,7 @@
       </c>
       <c r="S47">
         <f t="shared" si="0"/>
-        <v>0.63603910124660379</v>
+        <v>0.17522390681674918</v>
       </c>
     </row>
     <row r="48" spans="6:19" x14ac:dyDescent="0.15">
@@ -49143,7 +49098,7 @@
       </c>
       <c r="S48">
         <f t="shared" si="0"/>
-        <v>0.62202145928731922</v>
+        <v>0.17251768840627416</v>
       </c>
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.15">
@@ -49152,7 +49107,7 @@
       </c>
       <c r="S49">
         <f t="shared" si="0"/>
-        <v>0.60848927883146264</v>
+        <v>0.16990847833559075</v>
       </c>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.15">
@@ -49161,7 +49116,7 @@
       </c>
       <c r="S50">
         <f t="shared" si="0"/>
-        <v>0.59541951793146353</v>
+        <v>0.16739076038848569</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.15">
@@ -49170,7 +49125,7 @@
       </c>
       <c r="S51">
         <f t="shared" si="0"/>
-        <v>0.58279049870674648</v>
+        <v>0.16495944565761492</v>
       </c>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.15">
@@ -49179,7 +49134,7 @@
       </c>
       <c r="S52">
         <f t="shared" si="0"/>
-        <v>0.57058181425092325</v>
+        <v>0.16260983092100958</v>
       </c>
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.15">
@@ -49188,7 +49143,7 @@
       </c>
       <c r="S53">
         <f t="shared" si="0"/>
-        <v>0.55877424220426142</v>
+        <v>0.16033756187331336</v>
       </c>
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.15">
@@ -49197,7 +49152,7 @@
       </c>
       <c r="S54">
         <f t="shared" si="0"/>
-        <v>0.54734966458744305</v>
+        <v>0.1581386005556967</v>
       </c>
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.15">
@@ -49206,7 +49161,7 @@
       </c>
       <c r="S55">
         <f t="shared" si="0"/>
-        <v>0.53629099348871867</v>
+        <v>0.15600919642872585</v>
       </c>
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.15">
@@ -49215,7 +49170,7 @@
       </c>
       <c r="S56">
         <f t="shared" si="0"/>
-        <v>0.52558210220289814</v>
+        <v>0.15394586061573673</v>
       </c>
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.15">
@@ -49224,7 +49179,7 @@
       </c>
       <c r="S57">
         <f t="shared" si="0"/>
-        <v>0.51520776143380898</v>
+        <v>0.15194534291365375</v>
       </c>
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.15">
@@ -49233,7 +49188,7 @@
       </c>
       <c r="S58">
         <f t="shared" si="0"/>
-        <v>0.50515358018934164</v>
+        <v>0.15000461122624836</v>
       </c>
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.15">
@@ -49242,7 +49197,7 @@
       </c>
       <c r="S59">
         <f t="shared" si="0"/>
-        <v>0.49540595101825585</v>
+        <v>0.1481208331235713</v>
       </c>
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.15">
@@ -49251,7 +49206,7 @@
       </c>
       <c r="S60">
         <f t="shared" si="0"/>
-        <v>0.48595199925926541</v>
+        <v>0.14629135927237294</v>
       </c>
     </row>
     <row r="61" spans="18:19" x14ac:dyDescent="0.15">
@@ -49260,7 +49215,7 @@
       </c>
       <c r="S61">
         <f t="shared" si="0"/>
-        <v>0.47677953599463935</v>
+        <v>0.14451370851705531</v>
       </c>
     </row>
     <row r="62" spans="18:19" x14ac:dyDescent="0.15">
@@ -49269,7 +49224,7 @@
       </c>
       <c r="S62">
         <f t="shared" si="0"/>
-        <v>0.46787701442207802</v>
+        <v>0.14278555442016802</v>
       </c>
     </row>
     <row r="63" spans="18:19" x14ac:dyDescent="0.15">
@@ -49278,7 +49233,7 @@
       </c>
       <c r="S63">
         <f t="shared" si="0"/>
-        <v>0.45923348937951586</v>
+        <v>0.14110471309653208</v>
       </c>
     </row>
     <row r="64" spans="18:19" x14ac:dyDescent="0.15">
@@ -49287,7 +49242,7 @@
       </c>
       <c r="S64">
         <f t="shared" si="0"/>
-        <v>0.45083857977746994</v>
+        <v>0.13946913219648646</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.15">
@@ -49296,7 +49251,7 @@
       </c>
       <c r="S65">
         <f t="shared" si="0"/>
-        <v>0.44268243371250587</v>
+        <v>0.1378768809120742</v>
       </c>
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.15">
@@ -49305,7 +49260,7 @@
       </c>
       <c r="S66">
         <f t="shared" si="0"/>
-        <v>0.43475569605316994</v>
+        <v>0.13632614089572145</v>
       </c>
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.15">
@@ -49314,7 +49269,7 @@
       </c>
       <c r="S67">
         <f t="shared" si="0"/>
-        <v>0.42704947830633477</v>
+        <v>0.13481519799450545</v>
       </c>
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.15">
@@ -49323,7 +49278,7 @@
       </c>
       <c r="S68">
         <f t="shared" si="0"/>
-        <v>0.41955533058736338</v>
+        <v>0.13334243471480042</v>
       </c>
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.15">
@@ -49332,7 +49287,7 @@
       </c>
       <c r="S69">
         <f t="shared" si="0"/>
-        <v>0.41226521553176743</v>
+        <v>0.13190632334220689</v>
       </c>
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.15">
@@ -49341,7 +49296,7 @@
       </c>
       <c r="S70">
         <f t="shared" si="0"/>
-        <v>0.40517148399924102</v>
+        <v>0.1305054196504439</v>
       </c>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.15">
@@ -49350,7 +49305,7 @@
       </c>
       <c r="S71">
         <f t="shared" si="0"/>
-        <v>0.39826685243309728</v>
+        <v>0.12913835714051622</v>
       </c>
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.15">
@@ -49359,7 +49314,7 @@
       </c>
       <c r="S72">
         <f t="shared" si="0"/>
-        <v>0.39154438174931511</v>
+        <v>0.12780384175811785</v>
       </c>
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.15">
@@ -49367,8 +49322,8 @@
         <v>66</v>
       </c>
       <c r="S73">
-        <f t="shared" ref="S73:S118" si="1">EXP(0.652*LN(R73)-0.21*(LN(R73))^2)</f>
-        <v>0.38499745763965554</v>
+        <f t="shared" ref="S73:S118" si="1">EXP(-0.315*LN(R73)-0.0426*(LN(R73))^2)</f>
+        <v>0.12650064704303954</v>
       </c>
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.15">
@@ -49377,7 +49332,7 @@
       </c>
       <c r="S74">
         <f t="shared" si="1"/>
-        <v>0.37861977218271159</v>
+        <v>0.12522760966943433</v>
       </c>
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.15">
@@ -49386,7 +49341,7 @@
       </c>
       <c r="S75">
         <f t="shared" si="1"/>
-        <v>0.37240530666539046</v>
+        <v>0.12398362534025242</v>
       </c>
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.15">
@@ -49395,7 +49350,7 @@
       </c>
       <c r="S76">
         <f t="shared" si="1"/>
-        <v>0.36634831552521163</v>
+        <v>0.12276764500307508</v>
       </c>
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.15">
@@ -49404,7 +49359,7 @@
       </c>
       <c r="S77">
         <f t="shared" si="1"/>
-        <v>0.36044331133103469</v>
+        <v>0.12157867135803016</v>
       </c>
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.15">
@@ -49413,7 +49368,7 @@
       </c>
       <c r="S78">
         <f t="shared" si="1"/>
-        <v>0.35468505072645656</v>
+        <v>0.12041575563151342</v>
       </c>
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.15">
@@ -49422,7 +49377,7 @@
       </c>
       <c r="S79">
         <f t="shared" si="1"/>
-        <v>0.34906852126616422</v>
+        <v>0.11927799459213353</v>
       </c>
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.15">
@@ -49431,7 +49386,7 @@
       </c>
       <c r="S80">
         <f t="shared" si="1"/>
-        <v>0.34358892908107702</v>
+        <v>0.11816452778767902</v>
       </c>
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.15">
@@ -49440,7 +49395,7 @@
       </c>
       <c r="S81">
         <f t="shared" si="1"/>
-        <v>0.33824168731318788</v>
+        <v>0.11707453498401944</v>
       </c>
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.15">
@@ -49449,7 +49404,7 @@
       </c>
       <c r="S82">
         <f t="shared" si="1"/>
-        <v>0.33302240526565141</v>
+        <v>0.11600723378873207</v>
       </c>
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.15">
@@ -49458,7 +49413,7 @@
       </c>
       <c r="S83">
         <f t="shared" si="1"/>
-        <v>0.32792687821792477</v>
+        <v>0.11496187744391281</v>
       </c>
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.15">
@@ -49467,7 +49422,7 @@
       </c>
       <c r="S84">
         <f t="shared" si="1"/>
-        <v>0.32295107785966681</v>
+        <v>0.11393775277412428</v>
       </c>
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.15">
@@ -49476,7 +49431,7 @@
       </c>
       <c r="S85">
         <f t="shared" si="1"/>
-        <v>0.31809114330065852</v>
+        <v>0.11293417827675765</v>
       </c>
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.15">
@@ -49485,7 +49440,7 @@
       </c>
       <c r="S86">
         <f t="shared" si="1"/>
-        <v>0.31334337261729228</v>
+        <v>0.11195050234327905</v>
       </c>
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.15">
@@ -49494,7 +49449,7 @@
       </c>
       <c r="S87">
         <f t="shared" si="1"/>
-        <v>0.30870421489917532</v>
+        <v>0.1109861016008923</v>
       </c>
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.15">
@@ -49503,7 +49458,7 @@
       </c>
       <c r="S88">
         <f t="shared" si="1"/>
-        <v>0.30417026276214149</v>
+        <v>0.11004037936510427</v>
       </c>
     </row>
     <row r="89" spans="18:19" x14ac:dyDescent="0.15">
@@ -49512,7 +49467,7 @@
       </c>
       <c r="S89">
         <f t="shared" si="1"/>
-        <v>0.29973824529649534</v>
+        <v>0.10911276419453787</v>
       </c>
     </row>
     <row r="90" spans="18:19" x14ac:dyDescent="0.15">
@@ -49521,7 +49476,7 @@
       </c>
       <c r="S90">
         <f t="shared" si="1"/>
-        <v>0.2954050214216376</v>
+        <v>0.10820270854010498</v>
       </c>
     </row>
     <row r="91" spans="18:19" x14ac:dyDescent="0.15">
@@ -49530,7 +49485,7 @@
       </c>
       <c r="S91">
         <f t="shared" si="1"/>
-        <v>0.29116757362034384</v>
+        <v>0.10730968748134907</v>
       </c>
     </row>
     <row r="92" spans="18:19" x14ac:dyDescent="0.15">
@@ -49539,7 +49494,7 @@
       </c>
       <c r="S92">
         <f t="shared" si="1"/>
-        <v>0.28702300202793818</v>
+        <v>0.10643319754338854</v>
       </c>
     </row>
     <row r="93" spans="18:19" x14ac:dyDescent="0.15">
@@ -49548,7 +49503,7 @@
       </c>
       <c r="S93">
         <f t="shared" si="1"/>
-        <v>0.28296851885340396</v>
+        <v>0.10557275558845949</v>
       </c>
     </row>
     <row r="94" spans="18:19" x14ac:dyDescent="0.15">
@@ -49557,7 +49512,7 @@
       </c>
       <c r="S94">
         <f t="shared" si="1"/>
-        <v>0.27900144311112351</v>
+        <v>0.1047278977765634</v>
       </c>
     </row>
     <row r="95" spans="18:19" x14ac:dyDescent="0.15">
@@ -49566,7 +49521,7 @@
       </c>
       <c r="S95">
         <f t="shared" si="1"/>
-        <v>0.27511919564348669</v>
+        <v>0.10389817859019032</v>
       </c>
     </row>
     <row r="96" spans="18:19" x14ac:dyDescent="0.15">
@@ -49575,7 +49530,7 @@
       </c>
       <c r="S96">
         <f t="shared" si="1"/>
-        <v>0.27131929441599306</v>
+        <v>0.1030831699185024</v>
       </c>
     </row>
     <row r="97" spans="18:19" x14ac:dyDescent="0.15">
@@ -49584,7 +49539,7 @@
       </c>
       <c r="S97">
         <f t="shared" si="1"/>
-        <v>0.26759935006778834</v>
+        <v>0.10228246019674365</v>
       </c>
     </row>
     <row r="98" spans="18:19" x14ac:dyDescent="0.15">
@@ -49593,7 +49548,7 @@
       </c>
       <c r="S98">
         <f t="shared" si="1"/>
-        <v>0.26395706170176531</v>
+        <v>0.10149565359698701</v>
       </c>
     </row>
     <row r="99" spans="18:19" x14ac:dyDescent="0.15">
@@ -49602,7 +49557,7 @@
       </c>
       <c r="S99">
         <f t="shared" si="1"/>
-        <v>0.26039021289945552</v>
+        <v>0.10072236926663877</v>
       </c>
     </row>
     <row r="100" spans="18:19" x14ac:dyDescent="0.15">
@@ -49611,7 +49566,7 @@
       </c>
       <c r="S100">
         <f t="shared" si="1"/>
-        <v>0.25689666794698174</v>
+        <v>9.996224061140993E-2</v>
       </c>
     </row>
     <row r="101" spans="18:19" x14ac:dyDescent="0.15">
@@ -49620,7 +49575,7 @@
       </c>
       <c r="S101">
         <f t="shared" si="1"/>
-        <v>0.25347436825925274</v>
+        <v>9.9214914619718431E-2</v>
       </c>
     </row>
     <row r="102" spans="18:19" x14ac:dyDescent="0.15">
@@ -49629,7 +49584,7 @@
       </c>
       <c r="S102">
         <f t="shared" si="1"/>
-        <v>0.25012132899048289</v>
+        <v>9.848005122572602E-2</v>
       </c>
     </row>
     <row r="103" spans="18:19" x14ac:dyDescent="0.15">
@@ -49638,7 +49593,7 @@
       </c>
       <c r="S103">
         <f t="shared" si="1"/>
-        <v>0.24683563581990062</v>
+        <v>9.7757322708428157E-2</v>
       </c>
     </row>
     <row r="104" spans="18:19" x14ac:dyDescent="0.15">
@@ -49647,7 +49602,7 @@
       </c>
       <c r="S104">
         <f t="shared" si="1"/>
-        <v>0.24361544190227261</v>
+        <v>9.7046413124410716E-2</v>
       </c>
     </row>
     <row r="105" spans="18:19" x14ac:dyDescent="0.15">
@@ -49656,7 +49611,7 @@
       </c>
       <c r="S105">
         <f t="shared" si="1"/>
-        <v>0.24045896497355265</v>
+        <v>9.6347017772070428E-2</v>
       </c>
     </row>
     <row r="106" spans="18:19" x14ac:dyDescent="0.15">
@@ -49665,7 +49620,7 @@
       </c>
       <c r="S106">
         <f t="shared" si="1"/>
-        <v>0.23736448460260559</v>
+        <v>9.5658842685257664E-2</v>
       </c>
     </row>
     <row r="107" spans="18:19" x14ac:dyDescent="0.15">
@@ -49674,7 +49629,7 @@
       </c>
       <c r="S107">
         <f t="shared" si="1"/>
-        <v>0.23433033958055019</v>
+        <v>9.4981604154453808E-2</v>
       </c>
     </row>
     <row r="108" spans="18:19" x14ac:dyDescent="0.15">
@@ -49683,7 +49638,7 @@
       </c>
       <c r="S108">
         <f t="shared" si="1"/>
-        <v>0.23135492543982053</v>
+        <v>9.4315028273733004E-2</v>
       </c>
     </row>
     <row r="109" spans="18:19" x14ac:dyDescent="0.15">
@@ -49692,7 +49647,7 @@
       </c>
       <c r="S109">
         <f t="shared" si="1"/>
-        <v>0.2284366920955398</v>
+        <v>9.3658850511883662E-2</v>
       </c>
     </row>
     <row r="110" spans="18:19" x14ac:dyDescent="0.15">
@@ -49701,7 +49656,7 @@
       </c>
       <c r="S110">
         <f t="shared" si="1"/>
-        <v>0.22557414160229838</v>
+        <v>9.3012815306185007E-2</v>
       </c>
     </row>
     <row r="111" spans="18:19" x14ac:dyDescent="0.15">
@@ -49710,7 +49665,7 @@
       </c>
       <c r="S111">
         <f t="shared" si="1"/>
-        <v>0.22276582601984998</v>
+        <v>9.2376675677438472E-2</v>
       </c>
     </row>
     <row r="112" spans="18:19" x14ac:dyDescent="0.15">
@@ -49719,7 +49674,7 @@
       </c>
       <c r="S112">
         <f t="shared" si="1"/>
-        <v>0.22001034538164993</v>
+        <v>9.1750192864953131E-2</v>
       </c>
     </row>
     <row r="113" spans="18:19" x14ac:dyDescent="0.15">
@@ -49728,7 +49683,7 @@
       </c>
       <c r="S113">
         <f t="shared" si="1"/>
-        <v>0.2173063457605586</v>
+        <v>9.1133135980276878E-2</v>
       </c>
     </row>
     <row r="114" spans="18:19" x14ac:dyDescent="0.15">
@@ -49737,7 +49692,7 @@
       </c>
       <c r="S114">
         <f t="shared" si="1"/>
-        <v>0.21465251742636071</v>
+        <v>9.0525281678546288E-2</v>
       </c>
     </row>
     <row r="115" spans="18:19" x14ac:dyDescent="0.15">
@@ -49746,7 +49701,7 @@
       </c>
       <c r="S115">
         <f t="shared" si="1"/>
-        <v>0.21204759309010426</v>
+        <v>8.9926413846407524E-2</v>
       </c>
     </row>
     <row r="116" spans="18:19" x14ac:dyDescent="0.15">
@@ -49755,7 +49710,7 @@
       </c>
       <c r="S116">
         <f t="shared" si="1"/>
-        <v>0.20949034623055821</v>
+        <v>8.9336323305530527E-2</v>
       </c>
     </row>
     <row r="117" spans="18:19" x14ac:dyDescent="0.15">
@@ -49764,7 +49719,7 @@
       </c>
       <c r="S117">
         <f t="shared" si="1"/>
-        <v>0.20697958949837311</v>
+        <v>8.8754807530805349E-2</v>
       </c>
     </row>
     <row r="118" spans="18:19" x14ac:dyDescent="0.15">
@@ -49773,7 +49728,7 @@
       </c>
       <c r="S118">
         <f t="shared" si="1"/>
-        <v>0.20451417319380719</v>
+        <v>8.81816703823705E-2</v>
       </c>
     </row>
   </sheetData>

--- a/回归结果/水稻.xlsx
+++ b/回归结果/水稻.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="回归结果" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">回归结果!$A$21:$G$55</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="277">
   <si>
     <t>yield</t>
   </si>
@@ -1316,6 +1317,51 @@
     <t>-0.210***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t>-0.042</t>
+  </si>
+  <si>
+    <t>-0.143</t>
+  </si>
+  <si>
+    <t>0.02*</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>-0.024*</t>
+  </si>
+  <si>
+    <t>6.764***</t>
+  </si>
 </sst>
 </file>
 
@@ -1744,6 +1790,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1755,24 +1819,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -27909,6 +27955,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A81:L81"/>
     <mergeCell ref="A82:A83"/>
@@ -27920,11 +27971,6 @@
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30007,7 +30053,7 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="66"/>
@@ -30018,15 +30064,15 @@
       <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -30085,15 +30131,15 @@
         <f>F24&amp;E24</f>
         <v>-0.039***</v>
       </c>
-      <c r="K24" s="81" t="s">
+      <c r="K24" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -31593,27 +31639,27 @@
       <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -31765,18 +31811,18 @@
       <c r="S78" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="T78" s="77" t="s">
+      <c r="T78" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="U78" s="77"/>
-      <c r="V78" s="77" t="s">
+      <c r="U78" s="76"/>
+      <c r="V78" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="W78" s="77"/>
-      <c r="X78" s="77" t="s">
+      <c r="W78" s="76"/>
+      <c r="X78" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="Y78" s="77"/>
+      <c r="Y78" s="76"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -31942,10 +31988,10 @@
         <f t="shared" si="5"/>
         <v>0.001**</v>
       </c>
-      <c r="J82" s="78" t="s">
+      <c r="J82" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="K82" s="78"/>
+      <c r="K82" s="72"/>
       <c r="L82" s="2"/>
       <c r="S82" s="47" t="s">
         <v>52</v>
@@ -32674,10 +32720,10 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">0 </v>
       </c>
-      <c r="J96" s="78" t="s">
+      <c r="J96" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="K96" s="78"/>
+      <c r="K96" s="72"/>
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
       <c r="S96" s="47" t="s">
@@ -33221,18 +33267,18 @@
       <c r="S108" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="T108" s="76" t="s">
+      <c r="T108" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="U108" s="76"/>
-      <c r="V108" s="76" t="s">
+      <c r="U108" s="77"/>
+      <c r="V108" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="W108" s="76"/>
-      <c r="X108" s="76" t="s">
+      <c r="W108" s="77"/>
+      <c r="X108" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="Y108" s="76"/>
+      <c r="Y108" s="77"/>
     </row>
     <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -33249,18 +33295,18 @@
       <c r="S109" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="T109" s="75" t="s">
+      <c r="T109" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="U109" s="75"/>
-      <c r="V109" s="76" t="s">
+      <c r="U109" s="81"/>
+      <c r="V109" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="W109" s="76"/>
-      <c r="X109" s="76" t="s">
+      <c r="W109" s="77"/>
+      <c r="X109" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="Y109" s="76"/>
+      <c r="Y109" s="77"/>
     </row>
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -33279,66 +33325,51 @@
       <c r="S110" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="T110" s="76" t="s">
+      <c r="T110" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="U110" s="76"/>
-      <c r="V110" s="76" t="s">
+      <c r="U110" s="77"/>
+      <c r="V110" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="W110" s="76"/>
-      <c r="X110" s="76" t="s">
+      <c r="W110" s="77"/>
+      <c r="X110" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="Y110" s="76"/>
+      <c r="Y110" s="77"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="S111" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="T111" s="72" t="s">
+      <c r="T111" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="U111" s="72"/>
-      <c r="V111" s="72"/>
-      <c r="W111" s="72"/>
-      <c r="X111" s="72"/>
-      <c r="Y111" s="72"/>
+      <c r="U111" s="78"/>
+      <c r="V111" s="78"/>
+      <c r="W111" s="78"/>
+      <c r="X111" s="78"/>
+      <c r="Y111" s="78"/>
     </row>
     <row r="112" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="S112" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="73">
+      <c r="T112" s="79">
         <v>0.33750000000000002</v>
       </c>
-      <c r="U112" s="73"/>
-      <c r="V112" s="74" t="s">
+      <c r="U112" s="79"/>
+      <c r="V112" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74" t="s">
+      <c r="W112" s="80"/>
+      <c r="X112" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="Y112" s="74"/>
+      <c r="Y112" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="T108:U108"/>
-    <mergeCell ref="V108:W108"/>
-    <mergeCell ref="X108:Y108"/>
     <mergeCell ref="T111:Y111"/>
     <mergeCell ref="T112:U112"/>
     <mergeCell ref="V112:W112"/>
@@ -33349,6 +33380,21 @@
     <mergeCell ref="T110:U110"/>
     <mergeCell ref="V110:W110"/>
     <mergeCell ref="X110:Y110"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="T108:U108"/>
+    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="X108:Y108"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A70:G70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38988,18 +39034,18 @@
       <c r="A32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76" t="s">
+      <c r="E32" s="77"/>
+      <c r="F32" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="76"/>
+      <c r="G32" s="77"/>
       <c r="J32" s="4">
         <v>2013</v>
       </c>
@@ -39100,18 +39146,18 @@
       <c r="A33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76" t="s">
+      <c r="E33" s="77"/>
+      <c r="F33" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="76"/>
+      <c r="G33" s="77"/>
       <c r="J33" s="4">
         <v>2014</v>
       </c>
@@ -39212,18 +39258,18 @@
       <c r="A34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76" t="s">
+      <c r="E34" s="77"/>
+      <c r="F34" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="76"/>
+      <c r="G34" s="77"/>
       <c r="J34" s="4">
         <v>2015</v>
       </c>
@@ -39324,12 +39370,12 @@
       <c r="A35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="13"/>
       <c r="J35" s="4" t="s">
         <v>86</v>
@@ -39431,8 +39477,8 @@
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
@@ -48199,12 +48245,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -48213,6 +48253,12 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48225,7 +48271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S8" sqref="S8:S118"/>
     </sheetView>
   </sheetViews>
@@ -49744,4 +49790,536 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="39">
+        <v>9.3513999999999993E-3</v>
+      </c>
+      <c r="D5" s="39">
+        <v>-3.15</v>
+      </c>
+      <c r="E5" s="39">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1.2417999999999999E-3</v>
+      </c>
+      <c r="D6" s="39">
+        <v>-0.71</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="39">
+        <v>6.9616700000000004E-2</v>
+      </c>
+      <c r="D7" s="39">
+        <v>-0.61</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="39">
+        <v>8.9393200000000006E-2</v>
+      </c>
+      <c r="D8" s="39">
+        <v>-1.6</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1.0691600000000001E-2</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1.9</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.14133670000000001</v>
+      </c>
+      <c r="D10" s="39">
+        <v>-1.72</v>
+      </c>
+      <c r="E10" s="39">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="39">
+        <v>5.4475000000000001E-3</v>
+      </c>
+      <c r="D11" s="39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="39">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="39">
+        <v>8.3326000000000008E-3</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1.27</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="39">
+        <v>3.458E-4</v>
+      </c>
+      <c r="D13" s="39">
+        <v>2.13</v>
+      </c>
+      <c r="E13" s="39">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1.34482E-2</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1.68</v>
+      </c>
+      <c r="E14" s="39">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="39">
+        <v>9.8285000000000004E-3</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0.19</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1.7246E-3</v>
+      </c>
+      <c r="D16" s="39">
+        <v>-0.94</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1.06248E-2</v>
+      </c>
+      <c r="D17" s="39">
+        <v>-0.03</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1.3492000000000001E-3</v>
+      </c>
+      <c r="D18" s="39">
+        <v>-1.19</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1.21046E-2</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1.38</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1.6997E-3</v>
+      </c>
+      <c r="D20" s="39">
+        <v>-0.25</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1.0426400000000001E-2</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0.37</v>
+      </c>
+      <c r="E21" s="39">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="39">
+        <v>3.1480000000000001E-4</v>
+      </c>
+      <c r="D22" s="39">
+        <v>0.18</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="39">
+        <v>1.1709999999999999E-3</v>
+      </c>
+      <c r="D23" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="39">
+        <v>1.06404E-2</v>
+      </c>
+      <c r="D24" s="39">
+        <v>3.28</v>
+      </c>
+      <c r="E24" s="39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="39">
+        <v>3.5325999999999999E-3</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1.59</v>
+      </c>
+      <c r="E25" s="39">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="39">
+        <v>6.0286999999999997E-3</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="E26" s="39">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="39">
+        <v>4.9709000000000003E-3</v>
+      </c>
+      <c r="D27" s="39">
+        <v>-0.02</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="39">
+        <v>8.2589999999999996E-4</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="39">
+        <v>6.6426000000000002E-3</v>
+      </c>
+      <c r="D29" s="39">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="39">
+        <v>9.5654999999999994E-3</v>
+      </c>
+      <c r="D30" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="E30" s="39">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="39">
+        <v>1.2207900000000001E-2</v>
+      </c>
+      <c r="D31" s="39">
+        <v>-1.95</v>
+      </c>
+      <c r="E31" s="39">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="39">
+        <v>9.391E-4</v>
+      </c>
+      <c r="D32" s="39">
+        <v>1.29</v>
+      </c>
+      <c r="E32" s="39">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.41512870000000002</v>
+      </c>
+      <c r="D33" s="39">
+        <v>16.29</v>
+      </c>
+      <c r="E33" s="39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>